--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4588" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="2008">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9310,6 +9310,18 @@
   </si>
   <si>
     <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值大等1元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_cjj_cpl_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼&amp;冲金鸡平台的CPL用户（大等1元）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10138,11 +10150,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q444"/>
+  <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B446" sqref="B446:C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14777,6 +14789,21 @@
         <v>354</v>
       </c>
     </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="27" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B446" s="27" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C446" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="27"/>
+      <c r="B447" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14790,10 +14817,10 @@
   <dimension ref="A1:O338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D292" sqref="D292"/>
+      <selection pane="bottomRight" activeCell="A338" sqref="A338:XFD338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26242,13 +26269,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I891"/>
+  <dimension ref="A1:I895"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C359" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C869" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G368" sqref="G368"/>
+      <selection pane="bottomRight" activeCell="F894" sqref="F894:F895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46822,6 +46849,98 @@
         <v>1081</v>
       </c>
     </row>
+    <row r="892" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A892" s="8">
+        <v>891</v>
+      </c>
+      <c r="B892" s="8">
+        <v>355</v>
+      </c>
+      <c r="C892" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="D892" s="8">
+        <v>100</v>
+      </c>
+      <c r="E892" s="8">
+        <v>3</v>
+      </c>
+      <c r="F892" s="8">
+        <v>1</v>
+      </c>
+      <c r="G892" s="10" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A893" s="8">
+        <v>892</v>
+      </c>
+      <c r="B893" s="14">
+        <v>355</v>
+      </c>
+      <c r="C893" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D893" s="15" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E893" s="14">
+        <v>2</v>
+      </c>
+      <c r="F893" s="14">
+        <v>1</v>
+      </c>
+      <c r="G893" s="15" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A894" s="8">
+        <v>893</v>
+      </c>
+      <c r="B894" s="8">
+        <v>355</v>
+      </c>
+      <c r="C894" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="D894" s="8">
+        <v>100</v>
+      </c>
+      <c r="E894" s="8">
+        <v>3</v>
+      </c>
+      <c r="F894" s="8">
+        <v>2</v>
+      </c>
+      <c r="G894" s="10" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A895" s="8">
+        <v>894</v>
+      </c>
+      <c r="B895" s="14">
+        <v>355</v>
+      </c>
+      <c r="C895" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D895" s="15" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E895" s="14">
+        <v>2</v>
+      </c>
+      <c r="F895" s="14">
+        <v>2</v>
+      </c>
+      <c r="G895" s="15" t="s">
+        <v>1537</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46835,7 +46954,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="2020">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9068,10 +9068,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cjj_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>cjj_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9322,6 +9318,58 @@
   </si>
   <si>
     <t>捕鱼&amp;冲金鸡平台的CPL用户（大等1元）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2周任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_2_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_3_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_6_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_8_cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10152,7 +10200,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B446" sqref="B446:C446"/>
     </sheetView>
@@ -11359,7 +11407,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11395,7 +11443,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11534,7 +11582,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14692,10 +14740,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14703,10 +14751,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="27" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B432" s="27" t="s">
         <v>1977</v>
-      </c>
-      <c r="B432" s="27" t="s">
-        <v>1978</v>
       </c>
       <c r="C432" s="3">
         <v>345</v>
@@ -14714,7 +14762,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="27" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B434" s="27" t="s">
         <v>1947</v>
@@ -14725,10 +14773,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="27" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B436" s="27" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C436" s="3">
         <v>347</v>
@@ -14736,10 +14784,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B437" s="27" t="s">
         <v>1965</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1966</v>
       </c>
       <c r="C437" s="3">
         <v>348</v>
@@ -14747,10 +14795,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B439" s="27" t="s">
         <v>1982</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>1983</v>
       </c>
       <c r="C439" s="3">
         <v>351</v>
@@ -14758,10 +14806,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="27" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1984</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1985</v>
       </c>
       <c r="C440" s="3">
         <v>352</v>
@@ -14769,10 +14817,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1993</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1994</v>
       </c>
       <c r="C442" s="3">
         <v>353</v>
@@ -14780,10 +14828,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>2000</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>2001</v>
       </c>
       <c r="C444" s="3">
         <v>354</v>
@@ -14791,10 +14839,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="27" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2006</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2007</v>
       </c>
       <c r="C446" s="3">
         <v>355</v>
@@ -14814,13 +14862,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A338" sqref="A338:XFD338"/>
+      <selection pane="bottomRight" activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24751,7 +24799,7 @@
         <v>1870</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -25134,7 +25182,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1688</v>
@@ -26200,10 +26248,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26232,10 +26280,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26255,6 +26303,262 @@
         <v>1598889600</v>
       </c>
       <c r="L338" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A339" s="17">
+        <v>338</v>
+      </c>
+      <c r="B339" s="26">
+        <v>1</v>
+      </c>
+      <c r="C339" s="79" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D339" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G339" s="26">
+        <v>356</v>
+      </c>
+      <c r="H339" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I339" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K339" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L339" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A340" s="17">
+        <v>339</v>
+      </c>
+      <c r="B340" s="26">
+        <v>1</v>
+      </c>
+      <c r="C340" s="79" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D340" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G340" s="26">
+        <v>357</v>
+      </c>
+      <c r="H340" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I340" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K340" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L340" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A341" s="17">
+        <v>340</v>
+      </c>
+      <c r="B341" s="26">
+        <v>1</v>
+      </c>
+      <c r="C341" s="79" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D341" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G341" s="26">
+        <v>358</v>
+      </c>
+      <c r="H341" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I341" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K341" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L341" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A342" s="17">
+        <v>341</v>
+      </c>
+      <c r="B342" s="26">
+        <v>1</v>
+      </c>
+      <c r="C342" s="79" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D342" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G342" s="26">
+        <v>359</v>
+      </c>
+      <c r="H342" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I342" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K342" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L342" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A343" s="17">
+        <v>342</v>
+      </c>
+      <c r="B343" s="26">
+        <v>1</v>
+      </c>
+      <c r="C343" s="79" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D343" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G343" s="26">
+        <v>360</v>
+      </c>
+      <c r="H343" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I343" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K343" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L343" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A344" s="17">
+        <v>343</v>
+      </c>
+      <c r="B344" s="26">
+        <v>1</v>
+      </c>
+      <c r="C344" s="79" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D344" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G344" s="26">
+        <v>361</v>
+      </c>
+      <c r="H344" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I344" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K344" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L344" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A345" s="17">
+        <v>344</v>
+      </c>
+      <c r="B345" s="26">
+        <v>1</v>
+      </c>
+      <c r="C345" s="79" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D345" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G345" s="26">
+        <v>362</v>
+      </c>
+      <c r="H345" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I345" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K345" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L345" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A346" s="17">
+        <v>345</v>
+      </c>
+      <c r="B346" s="26">
+        <v>1</v>
+      </c>
+      <c r="C346" s="79" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D346" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G346" s="26">
+        <v>363</v>
+      </c>
+      <c r="H346" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I346" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J346" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K346" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L346" s="16" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -26269,13 +26573,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I895"/>
+  <dimension ref="A1:I915"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C869" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C881" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F894" sqref="F894:F895"/>
+      <selection pane="bottomRight" activeCell="A891" sqref="A891:A915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28472,7 +28776,7 @@
         <v>865</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -29760,7 +30064,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -29769,7 +30073,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -35019,7 +35323,7 @@
         <v>1168</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -43246,7 +43550,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -43430,7 +43734,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -44916,7 +45220,7 @@
         <v>1045</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46262,7 +46566,7 @@
         <v>1172</v>
       </c>
       <c r="D866" s="15" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E866" s="8">
         <v>5</v>
@@ -46331,7 +46635,7 @@
         <v>865</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E869" s="8">
         <v>5</v>
@@ -46377,7 +46681,7 @@
         <v>1045</v>
       </c>
       <c r="D871" s="10" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E871" s="8">
         <v>2</v>
@@ -46423,7 +46727,7 @@
         <v>865</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
@@ -46469,7 +46773,7 @@
         <v>1045</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -46515,7 +46819,7 @@
         <v>1168</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46524,7 +46828,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46538,7 +46842,7 @@
         <v>1045</v>
       </c>
       <c r="D878" s="9" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E878" s="9">
         <v>2</v>
@@ -46547,7 +46851,7 @@
         <v>2</v>
       </c>
       <c r="G878" s="53" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.2">
@@ -46561,7 +46865,7 @@
         <v>1045</v>
       </c>
       <c r="D879" s="53" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E879" s="9">
         <v>2</v>
@@ -46570,7 +46874,7 @@
         <v>3</v>
       </c>
       <c r="G879" s="53" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.2">
@@ -46584,7 +46888,7 @@
         <v>1045</v>
       </c>
       <c r="D880" s="53" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E880" s="9">
         <v>2</v>
@@ -46593,7 +46897,7 @@
         <v>4</v>
       </c>
       <c r="G880" s="53" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.2">
@@ -46607,7 +46911,7 @@
         <v>1172</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -46630,7 +46934,7 @@
         <v>1168</v>
       </c>
       <c r="D882" s="15" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E882" s="8">
         <v>5</v>
@@ -46662,7 +46966,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -46708,7 +47012,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -46731,7 +47035,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -46742,7 +47046,7 @@
         <v>352</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D887" s="15" t="s">
         <v>1626</v>
@@ -46754,7 +47058,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -46777,7 +47081,7 @@
         <v>3</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.2">
@@ -46788,19 +47092,19 @@
         <v>353</v>
       </c>
       <c r="C889" s="10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D889" s="15" t="s">
         <v>1995</v>
       </c>
-      <c r="D889" s="15" t="s">
+      <c r="E889" s="8">
+        <v>2</v>
+      </c>
+      <c r="F889" s="8">
+        <v>1</v>
+      </c>
+      <c r="G889" s="10" t="s">
         <v>1996</v>
-      </c>
-      <c r="E889" s="8">
-        <v>2</v>
-      </c>
-      <c r="F889" s="8">
-        <v>1</v>
-      </c>
-      <c r="G889" s="10" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -46823,7 +47127,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -46837,7 +47141,7 @@
         <v>1045</v>
       </c>
       <c r="D891" s="10" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E891" s="8">
         <v>5</v>
@@ -46869,7 +47173,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.2">
@@ -46915,7 +47219,7 @@
         <v>2</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.2">
@@ -46929,7 +47233,7 @@
         <v>1168</v>
       </c>
       <c r="D895" s="15" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E895" s="14">
         <v>2</v>
@@ -46939,6 +47243,466 @@
       </c>
       <c r="G895" s="15" t="s">
         <v>1537</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A896" s="8">
+        <v>895</v>
+      </c>
+      <c r="B896" s="9">
+        <v>356</v>
+      </c>
+      <c r="C896" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D896" s="53" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E896" s="9">
+        <v>5</v>
+      </c>
+      <c r="F896" s="9">
+        <v>1</v>
+      </c>
+      <c r="G896" s="53" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A897" s="8">
+        <v>896</v>
+      </c>
+      <c r="B897" s="9">
+        <v>356</v>
+      </c>
+      <c r="C897" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D897" s="53">
+        <v>2</v>
+      </c>
+      <c r="E897" s="9">
+        <v>2</v>
+      </c>
+      <c r="F897" s="9">
+        <v>1</v>
+      </c>
+      <c r="G897" s="53" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A898" s="8">
+        <v>897</v>
+      </c>
+      <c r="B898" s="9">
+        <v>357</v>
+      </c>
+      <c r="C898" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D898" s="53" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E898" s="9">
+        <v>5</v>
+      </c>
+      <c r="F898" s="9">
+        <v>1</v>
+      </c>
+      <c r="G898" s="53" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A899" s="8">
+        <v>898</v>
+      </c>
+      <c r="B899" s="9">
+        <v>357</v>
+      </c>
+      <c r="C899" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D899" s="53">
+        <v>3</v>
+      </c>
+      <c r="E899" s="9">
+        <v>3</v>
+      </c>
+      <c r="F899" s="9">
+        <v>1</v>
+      </c>
+      <c r="G899" s="53" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A900" s="8">
+        <v>899</v>
+      </c>
+      <c r="B900" s="9">
+        <v>357</v>
+      </c>
+      <c r="C900" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D900" s="53">
+        <v>5</v>
+      </c>
+      <c r="E900" s="9">
+        <v>4</v>
+      </c>
+      <c r="F900" s="9">
+        <v>1</v>
+      </c>
+      <c r="G900" s="53" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A901" s="8">
+        <v>900</v>
+      </c>
+      <c r="B901" s="9">
+        <v>358</v>
+      </c>
+      <c r="C901" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D901" s="53" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E901" s="9">
+        <v>5</v>
+      </c>
+      <c r="F901" s="9">
+        <v>1</v>
+      </c>
+      <c r="G901" s="53" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A902" s="8">
+        <v>901</v>
+      </c>
+      <c r="B902" s="9">
+        <v>358</v>
+      </c>
+      <c r="C902" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D902" s="53">
+        <v>6</v>
+      </c>
+      <c r="E902" s="9">
+        <v>3</v>
+      </c>
+      <c r="F902" s="9">
+        <v>1</v>
+      </c>
+      <c r="G902" s="53" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A903" s="8">
+        <v>902</v>
+      </c>
+      <c r="B903" s="9">
+        <v>358</v>
+      </c>
+      <c r="C903" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D903" s="53">
+        <v>7</v>
+      </c>
+      <c r="E903" s="9">
+        <v>4</v>
+      </c>
+      <c r="F903" s="9">
+        <v>1</v>
+      </c>
+      <c r="G903" s="53" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A904" s="8">
+        <v>903</v>
+      </c>
+      <c r="B904" s="9">
+        <v>359</v>
+      </c>
+      <c r="C904" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D904" s="53" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E904" s="9">
+        <v>5</v>
+      </c>
+      <c r="F904" s="9">
+        <v>1</v>
+      </c>
+      <c r="G904" s="53" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A905" s="8">
+        <v>904</v>
+      </c>
+      <c r="B905" s="9">
+        <v>359</v>
+      </c>
+      <c r="C905" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D905" s="53">
+        <v>8</v>
+      </c>
+      <c r="E905" s="9">
+        <v>3</v>
+      </c>
+      <c r="F905" s="9">
+        <v>1</v>
+      </c>
+      <c r="G905" s="53" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A906" s="8">
+        <v>905</v>
+      </c>
+      <c r="B906" s="14">
+        <v>360</v>
+      </c>
+      <c r="C906" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D906" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E906" s="14">
+        <v>2</v>
+      </c>
+      <c r="F906" s="14">
+        <v>1</v>
+      </c>
+      <c r="G906" s="15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A907" s="8">
+        <v>906</v>
+      </c>
+      <c r="B907" s="14">
+        <v>360</v>
+      </c>
+      <c r="C907" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D907" s="15">
+        <v>2</v>
+      </c>
+      <c r="E907" s="14">
+        <v>2</v>
+      </c>
+      <c r="F907" s="14">
+        <v>1</v>
+      </c>
+      <c r="G907" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A908" s="8">
+        <v>907</v>
+      </c>
+      <c r="B908" s="14">
+        <v>361</v>
+      </c>
+      <c r="C908" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D908" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E908" s="14">
+        <v>2</v>
+      </c>
+      <c r="F908" s="14">
+        <v>1</v>
+      </c>
+      <c r="G908" s="15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A909" s="8">
+        <v>908</v>
+      </c>
+      <c r="B909" s="14">
+        <v>361</v>
+      </c>
+      <c r="C909" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D909" s="15">
+        <v>3</v>
+      </c>
+      <c r="E909" s="14">
+        <v>3</v>
+      </c>
+      <c r="F909" s="14">
+        <v>1</v>
+      </c>
+      <c r="G909" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A910" s="8">
+        <v>909</v>
+      </c>
+      <c r="B910" s="14">
+        <v>361</v>
+      </c>
+      <c r="C910" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D910" s="15">
+        <v>5</v>
+      </c>
+      <c r="E910" s="14">
+        <v>4</v>
+      </c>
+      <c r="F910" s="14">
+        <v>1</v>
+      </c>
+      <c r="G910" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A911" s="8">
+        <v>910</v>
+      </c>
+      <c r="B911" s="14">
+        <v>362</v>
+      </c>
+      <c r="C911" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D911" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E911" s="14">
+        <v>2</v>
+      </c>
+      <c r="F911" s="14">
+        <v>1</v>
+      </c>
+      <c r="G911" s="15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A912" s="8">
+        <v>911</v>
+      </c>
+      <c r="B912" s="14">
+        <v>362</v>
+      </c>
+      <c r="C912" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D912" s="15">
+        <v>6</v>
+      </c>
+      <c r="E912" s="14">
+        <v>3</v>
+      </c>
+      <c r="F912" s="14">
+        <v>1</v>
+      </c>
+      <c r="G912" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A913" s="8">
+        <v>912</v>
+      </c>
+      <c r="B913" s="14">
+        <v>362</v>
+      </c>
+      <c r="C913" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D913" s="15">
+        <v>7</v>
+      </c>
+      <c r="E913" s="14">
+        <v>4</v>
+      </c>
+      <c r="F913" s="14">
+        <v>1</v>
+      </c>
+      <c r="G913" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A914" s="8">
+        <v>913</v>
+      </c>
+      <c r="B914" s="14">
+        <v>363</v>
+      </c>
+      <c r="C914" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D914" s="15" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E914" s="14">
+        <v>2</v>
+      </c>
+      <c r="F914" s="14">
+        <v>1</v>
+      </c>
+      <c r="G914" s="15" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A915" s="8">
+        <v>914</v>
+      </c>
+      <c r="B915" s="14">
+        <v>363</v>
+      </c>
+      <c r="C915" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D915" s="15">
+        <v>8</v>
+      </c>
+      <c r="E915" s="14">
+        <v>3</v>
+      </c>
+      <c r="F915" s="14">
+        <v>1</v>
+      </c>
+      <c r="G915" s="15" t="s">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -46954,7 +47718,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47088,7 +47852,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>897</v>
@@ -47111,7 +47875,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1753</v>
@@ -47157,7 +47921,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>1950</v>
+        <v>2009</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
@@ -47180,7 +47944,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>897</v>

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4692" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4704" uniqueCount="2029">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9384,6 +9384,30 @@
   </si>
   <si>
     <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10411</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10412</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP11钜惠礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12钜惠礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级12</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14865,13 +14889,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O347"/>
+  <dimension ref="A1:O349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G328" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C347" sqref="C347"/>
+      <selection pane="bottomRight" activeCell="G349" sqref="G349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26597,6 +26621,70 @@
         <v>1189</v>
       </c>
     </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A348" s="17">
+        <v>347</v>
+      </c>
+      <c r="B348" s="26">
+        <v>1</v>
+      </c>
+      <c r="C348" s="30" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D348" s="92" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G348" s="26">
+        <v>365</v>
+      </c>
+      <c r="H348" t="b">
+        <v>1</v>
+      </c>
+      <c r="I348" t="b">
+        <v>1</v>
+      </c>
+      <c r="J348" s="30" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K348" s="26">
+        <v>1588028400</v>
+      </c>
+      <c r="L348" s="30" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A349" s="17">
+        <v>348</v>
+      </c>
+      <c r="B349" s="26">
+        <v>1</v>
+      </c>
+      <c r="C349" s="30" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D349" s="92" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G349" s="26">
+        <v>366</v>
+      </c>
+      <c r="H349" t="b">
+        <v>1</v>
+      </c>
+      <c r="I349" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" s="30" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K349" s="26">
+        <v>1588028400</v>
+      </c>
+      <c r="L349" s="30" t="s">
+        <v>1189</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -26608,13 +26696,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I919"/>
+  <dimension ref="A1:I921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C886" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C892" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B914" sqref="B914"/>
+      <selection pane="bottomRight" activeCell="G921" sqref="G921"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47830,6 +47918,52 @@
       </c>
       <c r="G919" s="15" t="s">
         <v>2009</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A920" s="8">
+        <v>919</v>
+      </c>
+      <c r="B920" s="14">
+        <v>365</v>
+      </c>
+      <c r="C920" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D920" s="15">
+        <v>11</v>
+      </c>
+      <c r="E920" s="14">
+        <v>3</v>
+      </c>
+      <c r="F920" s="14">
+        <v>1</v>
+      </c>
+      <c r="G920" s="15" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A921" s="8">
+        <v>920</v>
+      </c>
+      <c r="B921" s="14">
+        <v>366</v>
+      </c>
+      <c r="C921" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D921" s="15">
+        <v>12</v>
+      </c>
+      <c r="E921" s="14">
+        <v>3</v>
+      </c>
+      <c r="F921" s="14">
+        <v>1</v>
+      </c>
+      <c r="G921" s="15" t="s">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4693" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="2018">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9594,7 +9594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9915,6 +9915,9 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14848,7 +14851,7 @@
   <dimension ref="A1:O349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G326" sqref="G326"/>
@@ -25870,7 +25873,7 @@
       <c r="B326" s="26">
         <v>1</v>
       </c>
-      <c r="C326" s="30" t="s">
+      <c r="C326" s="118" t="s">
         <v>1800</v>
       </c>
       <c r="D326" s="30" t="s">
@@ -25902,7 +25905,7 @@
       <c r="B327" s="26">
         <v>1</v>
       </c>
-      <c r="C327" s="30" t="s">
+      <c r="C327" s="118" t="s">
         <v>1801</v>
       </c>
       <c r="D327" s="30" t="s">
@@ -26655,10 +26658,10 @@
   <dimension ref="A1:I929"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C888" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C812" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D907" sqref="D907"/>
+      <selection pane="bottomRight" activeCell="E831" sqref="E831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46522,23 +46525,23 @@
       <c r="A831" s="8">
         <v>830</v>
       </c>
-      <c r="B831" s="114">
-        <v>330</v>
-      </c>
-      <c r="C831" s="77" t="s">
+      <c r="B831" s="115">
+        <v>331</v>
+      </c>
+      <c r="C831" s="116" t="s">
         <v>1063</v>
       </c>
-      <c r="D831" s="19" t="s">
+      <c r="D831" s="117" t="s">
         <v>1601</v>
       </c>
-      <c r="E831" s="77">
-        <v>2</v>
-      </c>
-      <c r="F831" s="77">
-        <v>2</v>
-      </c>
-      <c r="G831" s="19" t="s">
-        <v>1200</v>
+      <c r="E831" s="116">
+        <v>5</v>
+      </c>
+      <c r="F831" s="116">
+        <v>1</v>
+      </c>
+      <c r="G831" s="117" t="s">
+        <v>1630</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -46547,23 +46550,23 @@
       <c r="A832" s="8">
         <v>831</v>
       </c>
-      <c r="B832" s="115">
+      <c r="B832" s="116">
         <v>331</v>
       </c>
       <c r="C832" s="116" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D832" s="117" t="s">
-        <v>1601</v>
+        <v>876</v>
+      </c>
+      <c r="D832" s="116">
+        <v>4</v>
       </c>
       <c r="E832" s="116">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F832" s="116">
         <v>1</v>
       </c>
       <c r="G832" s="117" t="s">
-        <v>1630</v>
+        <v>1792</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -46579,16 +46582,16 @@
         <v>876</v>
       </c>
       <c r="D833" s="116">
+        <v>10</v>
+      </c>
+      <c r="E833" s="116">
         <v>4</v>
       </c>
-      <c r="E833" s="116">
-        <v>3</v>
-      </c>
       <c r="F833" s="116">
         <v>1</v>
       </c>
       <c r="G833" s="117" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -46597,23 +46600,23 @@
       <c r="A834" s="8">
         <v>833</v>
       </c>
-      <c r="B834" s="116">
-        <v>331</v>
-      </c>
-      <c r="C834" s="116" t="s">
+      <c r="B834" s="8">
+        <v>332</v>
+      </c>
+      <c r="C834" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="D834" s="116">
-        <v>10</v>
-      </c>
-      <c r="E834" s="116">
-        <v>4</v>
-      </c>
-      <c r="F834" s="116">
-        <v>1</v>
-      </c>
-      <c r="G834" s="117" t="s">
-        <v>1791</v>
+      <c r="D834" s="8">
+        <v>0</v>
+      </c>
+      <c r="E834" s="8">
+        <v>2</v>
+      </c>
+      <c r="F834" s="8">
+        <v>1</v>
+      </c>
+      <c r="G834" s="10" t="s">
+        <v>1806</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -46622,23 +46625,23 @@
       <c r="A835" s="8">
         <v>834</v>
       </c>
-      <c r="B835" s="8">
-        <v>332</v>
-      </c>
-      <c r="C835" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="D835" s="8">
-        <v>0</v>
-      </c>
-      <c r="E835" s="8">
-        <v>2</v>
-      </c>
-      <c r="F835" s="8">
-        <v>1</v>
-      </c>
-      <c r="G835" s="10" t="s">
-        <v>1806</v>
+      <c r="B835" s="9">
+        <v>333</v>
+      </c>
+      <c r="C835" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D835" s="9" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E835" s="9">
+        <v>5</v>
+      </c>
+      <c r="F835" s="9">
+        <v>1</v>
+      </c>
+      <c r="G835" s="53" t="s">
+        <v>1822</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -46648,22 +46651,22 @@
         <v>835</v>
       </c>
       <c r="B836" s="9">
-        <v>333</v>
-      </c>
-      <c r="C836" s="10" t="s">
-        <v>1043</v>
+        <v>334</v>
+      </c>
+      <c r="C836" s="9" t="s">
+        <v>863</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1935</v>
+        <v>868</v>
       </c>
       <c r="E836" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F836" s="9">
         <v>1</v>
       </c>
-      <c r="G836" s="53" t="s">
-        <v>1822</v>
+      <c r="G836" s="9" t="s">
+        <v>869</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -46675,11 +46678,11 @@
       <c r="B837" s="9">
         <v>334</v>
       </c>
-      <c r="C837" s="9" t="s">
-        <v>863</v>
+      <c r="C837" s="10" t="s">
+        <v>1043</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>868</v>
+        <v>1935</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -46688,7 +46691,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>869</v>
+        <v>1835</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -46698,13 +46701,13 @@
         <v>837</v>
       </c>
       <c r="B838" s="9">
-        <v>334</v>
-      </c>
-      <c r="C838" s="10" t="s">
-        <v>1043</v>
+        <v>335</v>
+      </c>
+      <c r="C838" s="9" t="s">
+        <v>863</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1935</v>
+        <v>872</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -46712,8 +46715,8 @@
       <c r="F838" s="9">
         <v>1</v>
       </c>
-      <c r="G838" s="9" t="s">
-        <v>1835</v>
+      <c r="G838" s="53" t="s">
+        <v>873</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -46725,11 +46728,11 @@
       <c r="B839" s="9">
         <v>335</v>
       </c>
-      <c r="C839" s="9" t="s">
-        <v>863</v>
+      <c r="C839" s="10" t="s">
+        <v>1043</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>872</v>
+        <v>1935</v>
       </c>
       <c r="E839" s="9">
         <v>2</v>
@@ -46737,8 +46740,8 @@
       <c r="F839" s="9">
         <v>1</v>
       </c>
-      <c r="G839" s="53" t="s">
-        <v>873</v>
+      <c r="G839" s="9" t="s">
+        <v>1835</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -46747,23 +46750,23 @@
       <c r="A840" s="8">
         <v>839</v>
       </c>
-      <c r="B840" s="9">
-        <v>335</v>
-      </c>
-      <c r="C840" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D840" s="9" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E840" s="9">
-        <v>2</v>
-      </c>
-      <c r="F840" s="9">
-        <v>1</v>
-      </c>
-      <c r="G840" s="9" t="s">
-        <v>1835</v>
+      <c r="B840" s="98">
+        <v>336</v>
+      </c>
+      <c r="C840" s="98" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D840" s="99" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E840" s="98">
+        <v>5</v>
+      </c>
+      <c r="F840" s="98">
+        <v>1</v>
+      </c>
+      <c r="G840" s="99" t="s">
+        <v>1836</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -46772,23 +46775,23 @@
       <c r="A841" s="8">
         <v>840</v>
       </c>
-      <c r="B841" s="98">
+      <c r="B841" s="9">
         <v>336</v>
       </c>
-      <c r="C841" s="98" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D841" s="99" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E841" s="98">
+      <c r="C841" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E841" s="9">
         <v>5</v>
       </c>
-      <c r="F841" s="98">
-        <v>1</v>
-      </c>
-      <c r="G841" s="99" t="s">
-        <v>1836</v>
+      <c r="F841" s="9">
+        <v>1</v>
+      </c>
+      <c r="G841" s="9" t="s">
+        <v>1835</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -46797,23 +46800,23 @@
       <c r="A842" s="8">
         <v>841</v>
       </c>
-      <c r="B842" s="9">
-        <v>336</v>
-      </c>
-      <c r="C842" s="10" t="s">
+      <c r="B842" s="106">
+        <v>337</v>
+      </c>
+      <c r="C842" s="107" t="s">
         <v>1043</v>
       </c>
-      <c r="D842" s="9" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E842" s="9">
-        <v>5</v>
-      </c>
-      <c r="F842" s="9">
-        <v>1</v>
-      </c>
-      <c r="G842" s="9" t="s">
-        <v>1835</v>
+      <c r="D842" s="107" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E842" s="106">
+        <v>2</v>
+      </c>
+      <c r="F842" s="106">
+        <v>1</v>
+      </c>
+      <c r="G842" s="107" t="s">
+        <v>1853</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -46825,20 +46828,20 @@
       <c r="B843" s="106">
         <v>337</v>
       </c>
-      <c r="C843" s="107" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D843" s="107" t="s">
-        <v>1852</v>
+      <c r="C843" s="106" t="s">
+        <v>891</v>
+      </c>
+      <c r="D843" s="106">
+        <v>1604968200</v>
       </c>
       <c r="E843" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F843" s="106">
         <v>1</v>
       </c>
       <c r="G843" s="107" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -46851,19 +46854,19 @@
         <v>337</v>
       </c>
       <c r="C844" s="106" t="s">
-        <v>891</v>
-      </c>
-      <c r="D844" s="106">
-        <v>1604968200</v>
+        <v>863</v>
+      </c>
+      <c r="D844" s="106" t="s">
+        <v>864</v>
       </c>
       <c r="E844" s="106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F844" s="106">
         <v>1</v>
       </c>
-      <c r="G844" s="107" t="s">
-        <v>1854</v>
+      <c r="G844" s="106" t="s">
+        <v>1856</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -46872,23 +46875,23 @@
       <c r="A845" s="8">
         <v>844</v>
       </c>
-      <c r="B845" s="106">
-        <v>337</v>
-      </c>
-      <c r="C845" s="106" t="s">
-        <v>863</v>
-      </c>
-      <c r="D845" s="106" t="s">
-        <v>864</v>
-      </c>
-      <c r="E845" s="106">
-        <v>2</v>
-      </c>
-      <c r="F845" s="106">
-        <v>1</v>
-      </c>
-      <c r="G845" s="106" t="s">
-        <v>1856</v>
+      <c r="B845" s="14">
+        <v>338</v>
+      </c>
+      <c r="C845" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D845" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E845" s="14">
+        <v>5</v>
+      </c>
+      <c r="F845" s="14">
+        <v>1</v>
+      </c>
+      <c r="G845" s="14" t="s">
+        <v>1863</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -46901,23 +46904,23 @@
       <c r="A846" s="8">
         <v>845</v>
       </c>
-      <c r="B846" s="14">
-        <v>338</v>
-      </c>
-      <c r="C846" s="14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D846" s="14" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E846" s="14">
-        <v>5</v>
-      </c>
-      <c r="F846" s="14">
-        <v>1</v>
-      </c>
-      <c r="G846" s="14" t="s">
-        <v>1863</v>
+      <c r="B846" s="8">
+        <v>339</v>
+      </c>
+      <c r="C846" s="10" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D846" s="10" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E846" s="8">
+        <v>2</v>
+      </c>
+      <c r="F846" s="8">
+        <v>1</v>
+      </c>
+      <c r="G846" s="10" t="s">
+        <v>1872</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -46927,22 +46930,22 @@
         <v>846</v>
       </c>
       <c r="B847" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C847" s="10" t="s">
-        <v>1871</v>
+        <v>1170</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1870</v>
+        <v>1935</v>
       </c>
       <c r="E847" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F847" s="8">
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1872</v>
+        <v>1912</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -46956,7 +46959,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C848" s="10" t="s">
         <v>1170</v>
@@ -46965,13 +46968,13 @@
         <v>1935</v>
       </c>
       <c r="E848" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F848" s="8">
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1912</v>
+        <v>1923</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -46980,23 +46983,23 @@
       <c r="A849" s="8">
         <v>848</v>
       </c>
-      <c r="B849" s="8">
-        <v>341</v>
-      </c>
-      <c r="C849" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D849" s="10" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E849" s="8">
-        <v>2</v>
-      </c>
-      <c r="F849" s="8">
-        <v>1</v>
-      </c>
-      <c r="G849" s="10" t="s">
-        <v>1923</v>
+      <c r="B849" s="110">
+        <v>342</v>
+      </c>
+      <c r="C849" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D849" s="111" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E849" s="110">
+        <v>2</v>
+      </c>
+      <c r="F849" s="110">
+        <v>1</v>
+      </c>
+      <c r="G849" s="111" t="s">
+        <v>1925</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47008,20 +47011,20 @@
       <c r="B850" s="110">
         <v>342</v>
       </c>
-      <c r="C850" s="111" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D850" s="111" t="s">
-        <v>1924</v>
+      <c r="C850" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D850" s="110">
+        <v>1</v>
       </c>
       <c r="E850" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F850" s="110">
         <v>1</v>
       </c>
       <c r="G850" s="111" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
@@ -47033,20 +47036,20 @@
       <c r="B851" s="110">
         <v>342</v>
       </c>
-      <c r="C851" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D851" s="110">
-        <v>1</v>
+      <c r="C851" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D851" s="111" t="s">
+        <v>1921</v>
       </c>
       <c r="E851" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F851" s="110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G851" s="111" t="s">
-        <v>1915</v>
+        <v>1689</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -47058,20 +47061,20 @@
       <c r="B852" s="110">
         <v>342</v>
       </c>
-      <c r="C852" s="111" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D852" s="111" t="s">
-        <v>1921</v>
+      <c r="C852" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D852" s="110">
+        <v>1</v>
       </c>
       <c r="E852" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F852" s="110">
         <v>2</v>
       </c>
       <c r="G852" s="111" t="s">
-        <v>1689</v>
+        <v>1915</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47083,20 +47086,20 @@
       <c r="B853" s="110">
         <v>342</v>
       </c>
-      <c r="C853" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D853" s="110">
-        <v>1</v>
+      <c r="C853" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D853" s="111" t="s">
+        <v>1922</v>
       </c>
       <c r="E853" s="110">
+        <v>2</v>
+      </c>
+      <c r="F853" s="110">
         <v>3</v>
       </c>
-      <c r="F853" s="110">
-        <v>2</v>
-      </c>
       <c r="G853" s="111" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47108,20 +47111,20 @@
       <c r="B854" s="110">
         <v>342</v>
       </c>
-      <c r="C854" s="111" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D854" s="111" t="s">
-        <v>1922</v>
+      <c r="C854" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D854" s="110">
+        <v>1</v>
       </c>
       <c r="E854" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F854" s="110">
         <v>3</v>
       </c>
       <c r="G854" s="111" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47134,16 +47137,16 @@
         <v>342</v>
       </c>
       <c r="C855" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D855" s="110">
-        <v>1</v>
+        <v>1043</v>
+      </c>
+      <c r="D855" s="110" t="s">
+        <v>1935</v>
       </c>
       <c r="E855" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F855" s="110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G855" s="111" t="s">
         <v>1915</v>
@@ -47157,42 +47160,42 @@
         <v>342</v>
       </c>
       <c r="C856" s="110" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D856" s="110" t="s">
-        <v>1935</v>
+        <v>876</v>
+      </c>
+      <c r="D856" s="110">
+        <v>1</v>
       </c>
       <c r="E856" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F856" s="110">
         <v>4</v>
       </c>
       <c r="G856" s="111" t="s">
-        <v>1915</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
       <c r="A857" s="8">
         <v>856</v>
       </c>
-      <c r="B857" s="110">
-        <v>342</v>
-      </c>
-      <c r="C857" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D857" s="110">
-        <v>1</v>
-      </c>
-      <c r="E857" s="110">
+      <c r="B857" s="9">
+        <v>343</v>
+      </c>
+      <c r="C857" s="53" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D857" s="9">
+        <v>1</v>
+      </c>
+      <c r="E857" s="9">
         <v>3</v>
       </c>
-      <c r="F857" s="110">
-        <v>4</v>
-      </c>
-      <c r="G857" s="111" t="s">
-        <v>1926</v>
+      <c r="F857" s="9">
+        <v>1</v>
+      </c>
+      <c r="G857" s="10" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="110" customFormat="1">
@@ -47202,20 +47205,20 @@
       <c r="B858" s="9">
         <v>343</v>
       </c>
-      <c r="C858" s="53" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D858" s="9">
-        <v>1</v>
-      </c>
-      <c r="E858" s="9">
-        <v>3</v>
-      </c>
-      <c r="F858" s="9">
+      <c r="C858" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D858" s="15" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E858" s="8">
+        <v>5</v>
+      </c>
+      <c r="F858" s="8">
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1928</v>
+        <v>1917</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47227,20 +47230,20 @@
       <c r="B859" s="9">
         <v>343</v>
       </c>
-      <c r="C859" s="10" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D859" s="15" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E859" s="8">
-        <v>5</v>
-      </c>
-      <c r="F859" s="8">
-        <v>1</v>
+      <c r="C859" s="53" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D859" s="9">
+        <v>9</v>
+      </c>
+      <c r="E859" s="9">
+        <v>3</v>
+      </c>
+      <c r="F859" s="9">
+        <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1917</v>
+        <v>1929</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47252,20 +47255,20 @@
       <c r="B860" s="9">
         <v>343</v>
       </c>
-      <c r="C860" s="53" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D860" s="9">
-        <v>9</v>
-      </c>
-      <c r="E860" s="9">
-        <v>3</v>
-      </c>
-      <c r="F860" s="9">
+      <c r="C860" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D860" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E860" s="8">
+        <v>5</v>
+      </c>
+      <c r="F860" s="8">
         <v>2</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -47274,23 +47277,23 @@
       <c r="A861" s="8">
         <v>860</v>
       </c>
-      <c r="B861" s="9">
+      <c r="B861" s="14">
         <v>343</v>
       </c>
-      <c r="C861" s="10" t="s">
+      <c r="C861" s="15" t="s">
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E861" s="8">
-        <v>5</v>
-      </c>
-      <c r="F861" s="8">
-        <v>2</v>
-      </c>
-      <c r="G861" s="10" t="s">
-        <v>1919</v>
+        <v>1916</v>
+      </c>
+      <c r="E861" s="14">
+        <v>2</v>
+      </c>
+      <c r="F861" s="14">
+        <v>3</v>
+      </c>
+      <c r="G861" s="15" t="s">
+        <v>1917</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -47306,16 +47309,16 @@
         <v>1170</v>
       </c>
       <c r="D862" s="15" t="s">
-        <v>1916</v>
+        <v>1935</v>
       </c>
       <c r="E862" s="14">
         <v>2</v>
       </c>
       <c r="F862" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G862" s="15" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -47324,23 +47327,23 @@
       <c r="A863" s="8">
         <v>862</v>
       </c>
-      <c r="B863" s="14">
-        <v>343</v>
-      </c>
-      <c r="C863" s="15" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D863" s="15" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E863" s="14">
-        <v>2</v>
-      </c>
-      <c r="F863" s="14">
-        <v>4</v>
-      </c>
-      <c r="G863" s="15" t="s">
-        <v>1920</v>
+      <c r="B863" s="8">
+        <v>344</v>
+      </c>
+      <c r="C863" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D863" s="10" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E863" s="8">
+        <v>5</v>
+      </c>
+      <c r="F863" s="8">
+        <v>1</v>
+      </c>
+      <c r="G863" s="10" t="s">
+        <v>1010</v>
       </c>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
@@ -47356,16 +47359,16 @@
         <v>863</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1964</v>
+        <v>1011</v>
       </c>
       <c r="E864" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F864" s="8">
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -47378,10 +47381,10 @@
         <v>344</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>863</v>
+        <v>1043</v>
       </c>
       <c r="D865" s="10" t="s">
-        <v>1011</v>
+        <v>1965</v>
       </c>
       <c r="E865" s="8">
         <v>2</v>
@@ -47390,7 +47393,7 @@
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1012</v>
+        <v>1090</v>
       </c>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
@@ -47403,19 +47406,19 @@
         <v>344</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D866" s="10" t="s">
-        <v>1965</v>
+        <v>910</v>
+      </c>
+      <c r="D866" s="8">
+        <v>600</v>
       </c>
       <c r="E866" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F866" s="8">
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1090</v>
+        <v>1013</v>
       </c>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
@@ -47425,22 +47428,22 @@
         <v>866</v>
       </c>
       <c r="B867" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C867" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D867" s="8">
-        <v>600</v>
+        <v>863</v>
+      </c>
+      <c r="D867" s="10" t="s">
+        <v>1964</v>
       </c>
       <c r="E867" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F867" s="8">
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
@@ -47456,16 +47459,16 @@
         <v>863</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1964</v>
+        <v>1011</v>
       </c>
       <c r="E868" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F868" s="8">
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H868" s="8"/>
       <c r="I868" s="8"/>
@@ -47478,19 +47481,19 @@
         <v>345</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>863</v>
+        <v>1043</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1011</v>
+        <v>1948</v>
       </c>
       <c r="E869" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F869" s="8">
         <v>1</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1015</v>
+        <v>1079</v>
       </c>
       <c r="H869" s="8"/>
       <c r="I869" s="8"/>
@@ -47503,19 +47506,19 @@
         <v>345</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D870" s="10" t="s">
-        <v>1948</v>
+        <v>910</v>
+      </c>
+      <c r="D870" s="8">
+        <v>600</v>
       </c>
       <c r="E870" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F870" s="8">
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -47524,23 +47527,23 @@
       <c r="A871" s="8">
         <v>870</v>
       </c>
-      <c r="B871" s="8">
-        <v>345</v>
+      <c r="B871" s="9">
+        <v>346</v>
       </c>
       <c r="C871" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D871" s="8">
-        <v>600</v>
+        <v>1166</v>
+      </c>
+      <c r="D871" s="15" t="s">
+        <v>1937</v>
       </c>
       <c r="E871" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F871" s="8">
         <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1013</v>
+        <v>1943</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47552,20 +47555,20 @@
       <c r="B872" s="9">
         <v>346</v>
       </c>
-      <c r="C872" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D872" s="15" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E872" s="8">
-        <v>2</v>
-      </c>
-      <c r="F872" s="8">
-        <v>1</v>
-      </c>
-      <c r="G872" s="10" t="s">
-        <v>1943</v>
+      <c r="C872" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D872" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E872" s="9">
+        <v>2</v>
+      </c>
+      <c r="F872" s="9">
+        <v>2</v>
+      </c>
+      <c r="G872" s="53" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47578,17 +47581,17 @@
       <c r="C873" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="D873" s="9" t="s">
-        <v>1938</v>
+      <c r="D873" s="53" t="s">
+        <v>1940</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
       </c>
       <c r="F873" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47602,16 +47605,16 @@
         <v>1043</v>
       </c>
       <c r="D874" s="53" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E874" s="9">
         <v>2</v>
       </c>
       <c r="F874" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G874" s="53" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -47619,22 +47622,22 @@
         <v>874</v>
       </c>
       <c r="B875" s="9">
-        <v>346</v>
-      </c>
-      <c r="C875" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D875" s="53" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E875" s="9">
-        <v>2</v>
-      </c>
-      <c r="F875" s="9">
-        <v>4</v>
-      </c>
-      <c r="G875" s="53" t="s">
-        <v>1946</v>
+        <v>347</v>
+      </c>
+      <c r="C875" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D875" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E875" s="8">
+        <v>2</v>
+      </c>
+      <c r="F875" s="8">
+        <v>1</v>
+      </c>
+      <c r="G875" s="10" t="s">
+        <v>1919</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -47642,16 +47645,16 @@
         <v>875</v>
       </c>
       <c r="B876" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D876" s="15" t="s">
         <v>1939</v>
       </c>
       <c r="E876" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
@@ -47665,22 +47668,22 @@
         <v>876</v>
       </c>
       <c r="B877" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C877" s="10" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1939</v>
+        <v>1624</v>
       </c>
       <c r="E877" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F877" s="8">
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1919</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -47688,13 +47691,13 @@
         <v>877</v>
       </c>
       <c r="B878" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C878" s="10" t="s">
         <v>1170</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1624</v>
+        <v>1846</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -47703,7 +47706,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1956</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -47711,22 +47714,22 @@
         <v>878</v>
       </c>
       <c r="B879" s="9">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C879" s="10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1846</v>
+        <v>1931</v>
       </c>
       <c r="E879" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1535</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -47734,7 +47737,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
         <v>1166</v>
@@ -47743,7 +47746,7 @@
         <v>1931</v>
       </c>
       <c r="E880" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F880" s="8">
         <v>1</v>
@@ -47762,19 +47765,19 @@
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1166</v>
+        <v>1971</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1931</v>
+        <v>1624</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
       </c>
       <c r="F881" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1943</v>
+        <v>1972</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -47787,19 +47790,19 @@
         <v>352</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1971</v>
+        <v>1166</v>
       </c>
       <c r="D882" s="15" t="s">
-        <v>1624</v>
+        <v>1846</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
       </c>
       <c r="F882" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -47809,22 +47812,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>1166</v>
+        <v>1980</v>
       </c>
       <c r="D883" s="15" t="s">
-        <v>1846</v>
+        <v>1981</v>
       </c>
       <c r="E883" s="8">
         <v>2</v>
       </c>
       <c r="F883" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -47834,22 +47837,22 @@
         <v>883</v>
       </c>
       <c r="B884" s="9">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1980</v>
+        <v>1166</v>
       </c>
       <c r="D884" s="15" t="s">
-        <v>1981</v>
+        <v>1846</v>
       </c>
       <c r="E884" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F884" s="8">
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -47862,10 +47865,10 @@
         <v>354</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D885" s="15" t="s">
-        <v>1846</v>
+        <v>1043</v>
+      </c>
+      <c r="D885" s="10" t="s">
+        <v>1948</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -47874,7 +47877,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1973</v>
+        <v>1079</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -47883,23 +47886,23 @@
       <c r="A886" s="8">
         <v>885</v>
       </c>
-      <c r="B886" s="9">
-        <v>354</v>
+      <c r="B886" s="8">
+        <v>355</v>
       </c>
       <c r="C886" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D886" s="10" t="s">
-        <v>1948</v>
+        <v>910</v>
+      </c>
+      <c r="D886" s="8">
+        <v>100</v>
       </c>
       <c r="E886" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F886" s="8">
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1079</v>
+        <v>1990</v>
       </c>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
@@ -47908,23 +47911,23 @@
       <c r="A887" s="8">
         <v>886</v>
       </c>
-      <c r="B887" s="8">
+      <c r="B887" s="14">
         <v>355</v>
       </c>
-      <c r="C887" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D887" s="8">
-        <v>100</v>
-      </c>
-      <c r="E887" s="8">
-        <v>3</v>
-      </c>
-      <c r="F887" s="8">
-        <v>1</v>
-      </c>
-      <c r="G887" s="10" t="s">
-        <v>1990</v>
+      <c r="C887" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D887" s="15" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E887" s="14">
+        <v>2</v>
+      </c>
+      <c r="F887" s="14">
+        <v>1</v>
+      </c>
+      <c r="G887" s="15" t="s">
+        <v>1535</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -47933,23 +47936,23 @@
       <c r="A888" s="8">
         <v>887</v>
       </c>
-      <c r="B888" s="14">
+      <c r="B888" s="8">
         <v>355</v>
       </c>
-      <c r="C888" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D888" s="15" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E888" s="14">
-        <v>2</v>
-      </c>
-      <c r="F888" s="14">
-        <v>1</v>
-      </c>
-      <c r="G888" s="15" t="s">
-        <v>1535</v>
+      <c r="C888" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="D888" s="8">
+        <v>100</v>
+      </c>
+      <c r="E888" s="8">
+        <v>3</v>
+      </c>
+      <c r="F888" s="8">
+        <v>2</v>
+      </c>
+      <c r="G888" s="10" t="s">
+        <v>1990</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -47958,23 +47961,23 @@
       <c r="A889" s="8">
         <v>888</v>
       </c>
-      <c r="B889" s="8">
+      <c r="B889" s="14">
         <v>355</v>
       </c>
-      <c r="C889" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D889" s="8">
-        <v>100</v>
-      </c>
-      <c r="E889" s="8">
-        <v>3</v>
-      </c>
-      <c r="F889" s="8">
-        <v>2</v>
-      </c>
-      <c r="G889" s="10" t="s">
-        <v>1990</v>
+      <c r="C889" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D889" s="15" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E889" s="14">
+        <v>2</v>
+      </c>
+      <c r="F889" s="14">
+        <v>2</v>
+      </c>
+      <c r="G889" s="15" t="s">
+        <v>1535</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -47983,23 +47986,23 @@
       <c r="A890" s="8">
         <v>889</v>
       </c>
-      <c r="B890" s="14">
-        <v>355</v>
+      <c r="B890" s="9">
+        <v>356</v>
       </c>
       <c r="C890" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="D890" s="15" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E890" s="14">
-        <v>2</v>
-      </c>
-      <c r="F890" s="14">
-        <v>2</v>
-      </c>
-      <c r="G890" s="15" t="s">
-        <v>1535</v>
+      <c r="D890" s="53" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E890" s="9">
+        <v>5</v>
+      </c>
+      <c r="F890" s="9">
+        <v>1</v>
+      </c>
+      <c r="G890" s="53" t="s">
+        <v>1997</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48012,19 +48015,19 @@
         <v>356</v>
       </c>
       <c r="C891" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D891" s="53" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D891" s="53">
+        <v>2</v>
       </c>
       <c r="E891" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F891" s="9">
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48034,22 +48037,22 @@
         <v>891</v>
       </c>
       <c r="B892" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C892" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D892" s="53">
-        <v>2</v>
+        <v>1166</v>
+      </c>
+      <c r="D892" s="53" t="s">
+        <v>1996</v>
       </c>
       <c r="E892" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F892" s="9">
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48062,19 +48065,19 @@
         <v>357</v>
       </c>
       <c r="C893" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D893" s="53" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D893" s="53">
+        <v>3</v>
       </c>
       <c r="E893" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F893" s="9">
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48088,10 +48091,10 @@
         <v>1141</v>
       </c>
       <c r="D894" s="53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E894" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F894" s="9">
         <v>1</v>
@@ -48107,22 +48110,22 @@
         <v>894</v>
       </c>
       <c r="B895" s="9">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C895" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D895" s="53">
+        <v>1166</v>
+      </c>
+      <c r="D895" s="53" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E895" s="9">
         <v>5</v>
       </c>
-      <c r="E895" s="9">
-        <v>4</v>
-      </c>
       <c r="F895" s="9">
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48135,19 +48138,19 @@
         <v>358</v>
       </c>
       <c r="C896" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D896" s="53" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D896" s="53">
+        <v>6</v>
       </c>
       <c r="E896" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F896" s="9">
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48163,10 +48166,10 @@
         <v>1141</v>
       </c>
       <c r="D897" s="53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E897" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F897" s="9">
         <v>1</v>
@@ -48182,22 +48185,22 @@
         <v>897</v>
       </c>
       <c r="B898" s="9">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C898" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D898" s="53">
-        <v>7</v>
+        <v>1166</v>
+      </c>
+      <c r="D898" s="53" t="s">
+        <v>1996</v>
       </c>
       <c r="E898" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F898" s="9">
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48210,19 +48213,19 @@
         <v>359</v>
       </c>
       <c r="C899" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D899" s="53" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D899" s="53">
+        <v>8</v>
       </c>
       <c r="E899" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F899" s="9">
         <v>1</v>
       </c>
       <c r="G899" s="53" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48231,23 +48234,23 @@
       <c r="A900" s="8">
         <v>899</v>
       </c>
-      <c r="B900" s="9">
-        <v>359</v>
+      <c r="B900" s="8">
+        <v>360</v>
       </c>
       <c r="C900" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D900" s="53">
-        <v>8</v>
-      </c>
-      <c r="E900" s="9">
-        <v>3</v>
-      </c>
-      <c r="F900" s="9">
-        <v>1</v>
-      </c>
-      <c r="G900" s="53" t="s">
-        <v>1998</v>
+        <v>1166</v>
+      </c>
+      <c r="D900" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E900" s="14">
+        <v>2</v>
+      </c>
+      <c r="F900" s="14">
+        <v>1</v>
+      </c>
+      <c r="G900" s="15" t="s">
+        <v>1997</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48260,10 +48263,10 @@
         <v>360</v>
       </c>
       <c r="C901" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D901" s="15" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D901" s="15">
+        <v>2</v>
       </c>
       <c r="E901" s="14">
         <v>2</v>
@@ -48272,7 +48275,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="15" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48280,13 +48283,13 @@
         <v>901</v>
       </c>
       <c r="B902" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C902" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D902" s="15">
-        <v>2</v>
+        <v>1166</v>
+      </c>
+      <c r="D902" s="15" t="s">
+        <v>1996</v>
       </c>
       <c r="E902" s="14">
         <v>2</v>
@@ -48295,7 +48298,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48306,19 +48309,19 @@
         <v>361</v>
       </c>
       <c r="C903" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D903" s="15" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D903" s="15">
+        <v>3</v>
       </c>
       <c r="E903" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F903" s="14">
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48332,10 +48335,10 @@
         <v>1141</v>
       </c>
       <c r="D904" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E904" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F904" s="14">
         <v>1</v>
@@ -48349,22 +48352,22 @@
         <v>904</v>
       </c>
       <c r="B905" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C905" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D905" s="15">
-        <v>5</v>
+        <v>1166</v>
+      </c>
+      <c r="D905" s="15" t="s">
+        <v>1996</v>
       </c>
       <c r="E905" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F905" s="14">
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48375,19 +48378,19 @@
         <v>362</v>
       </c>
       <c r="C906" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D906" s="15" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D906" s="15">
+        <v>6</v>
       </c>
       <c r="E906" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F906" s="14">
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48401,10 +48404,10 @@
         <v>1141</v>
       </c>
       <c r="D907" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E907" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F907" s="14">
         <v>1</v>
@@ -48418,22 +48421,22 @@
         <v>907</v>
       </c>
       <c r="B908" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C908" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D908" s="15">
-        <v>7</v>
+        <v>1166</v>
+      </c>
+      <c r="D908" s="15" t="s">
+        <v>1996</v>
       </c>
       <c r="E908" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F908" s="14">
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48444,19 +48447,19 @@
         <v>363</v>
       </c>
       <c r="C909" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D909" s="15" t="s">
-        <v>1996</v>
+        <v>1141</v>
+      </c>
+      <c r="D909" s="15">
+        <v>8</v>
       </c>
       <c r="E909" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F909" s="14">
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48464,22 +48467,22 @@
         <v>909</v>
       </c>
       <c r="B910" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C910" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D910" s="15">
-        <v>8</v>
+        <v>1166</v>
+      </c>
+      <c r="D910" s="15" t="s">
+        <v>1995</v>
       </c>
       <c r="E910" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F910" s="14">
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48490,19 +48493,19 @@
         <v>364</v>
       </c>
       <c r="C911" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D911" s="15" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D911" s="15">
+        <v>2</v>
       </c>
       <c r="E911" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F911" s="14">
         <v>1</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48513,19 +48516,19 @@
         <v>364</v>
       </c>
       <c r="C912" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D912" s="15">
-        <v>2</v>
+        <v>1166</v>
+      </c>
+      <c r="D912" s="15" t="s">
+        <v>2011</v>
       </c>
       <c r="E912" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F912" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48536,19 +48539,19 @@
         <v>364</v>
       </c>
       <c r="C913" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D913" s="15" t="s">
-        <v>2011</v>
+        <v>1141</v>
+      </c>
+      <c r="D913" s="15">
+        <v>2</v>
       </c>
       <c r="E913" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F913" s="14">
         <v>2</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48556,22 +48559,22 @@
         <v>913</v>
       </c>
       <c r="B914" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C914" s="15" t="s">
         <v>1141</v>
       </c>
       <c r="D914" s="15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E914" s="14">
         <v>3</v>
       </c>
       <c r="F914" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>1998</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -48579,13 +48582,13 @@
         <v>914</v>
       </c>
       <c r="B915" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C915" s="15" t="s">
         <v>1141</v>
       </c>
       <c r="D915" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E915" s="14">
         <v>3</v>
@@ -48594,32 +48597,10 @@
         <v>1</v>
       </c>
       <c r="G915" s="15" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7" s="8" customFormat="1">
-      <c r="A916" s="8">
-        <v>915</v>
-      </c>
-      <c r="B916" s="8">
-        <v>366</v>
-      </c>
-      <c r="C916" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D916" s="15">
-        <v>12</v>
-      </c>
-      <c r="E916" s="14">
-        <v>3</v>
-      </c>
-      <c r="F916" s="14">
-        <v>1</v>
-      </c>
-      <c r="G916" s="15" t="s">
         <v>2017</v>
       </c>
     </row>
+    <row r="916" spans="1:7" s="8" customFormat="1"/>
     <row r="917" spans="1:7" s="8" customFormat="1"/>
     <row r="918" spans="1:7" s="8" customFormat="1"/>
     <row r="919" spans="1:7" s="8" customFormat="1"/>
@@ -48627,21 +48608,11 @@
     <row r="921" spans="1:7" s="8" customFormat="1"/>
     <row r="922" spans="1:7" s="8" customFormat="1"/>
     <row r="929" spans="4:8">
-      <c r="D929" s="77" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E929" s="19" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F929" s="77">
-        <v>5</v>
-      </c>
-      <c r="G929" s="77">
-        <v>1</v>
-      </c>
-      <c r="H929" s="19" t="s">
-        <v>1630</v>
-      </c>
+      <c r="D929" s="8"/>
+      <c r="E929" s="10"/>
+      <c r="F929" s="8"/>
+      <c r="G929" s="8"/>
+      <c r="H929" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8035,10 +8035,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"vivo","xiaomi",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>lxdh_025_notnew</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9408,6 +9404,10 @@
   </si>
   <si>
     <t>VIP等级12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11445,7 +11445,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11481,7 +11481,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11620,7 +11620,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="200" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="64" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>330</v>
@@ -14160,7 +14160,7 @@
         <v>1387</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C351" s="3">
         <v>226</v>
@@ -14223,10 +14223,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="27" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B357" s="27" t="s">
         <v>1850</v>
-      </c>
-      <c r="B357" s="27" t="s">
-        <v>1851</v>
       </c>
       <c r="C357" s="3">
         <v>8</v>
@@ -14234,10 +14234,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="27" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C358" s="3">
         <v>343</v>
@@ -14256,10 +14256,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="27" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B362" s="34" t="s">
         <v>1811</v>
-      </c>
-      <c r="B362" s="34" t="s">
-        <v>1812</v>
       </c>
       <c r="C362" s="3">
         <v>332</v>
@@ -14270,7 +14270,7 @@
         <v>1469</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C363" s="3">
         <v>242</v>
@@ -14292,7 +14292,7 @@
         <v>1465</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C365" s="3">
         <v>244</v>
@@ -14303,7 +14303,7 @@
         <v>1503</v>
       </c>
       <c r="B368" s="27" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C368" s="3">
         <v>248</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="27" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B370" s="27" t="s">
         <v>1527</v>
@@ -14388,10 +14388,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="27" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C383" s="3">
         <v>326</v>
@@ -14399,10 +14399,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="27" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B385" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C385" s="3">
         <v>327</v>
@@ -14410,10 +14410,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="27" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C387" s="3">
         <v>328</v>
@@ -14421,10 +14421,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="27" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B389" s="27" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C389" s="3">
         <v>319</v>
@@ -14432,10 +14432,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="34" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C391" s="8">
         <v>127</v>
@@ -14443,10 +14443,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="34" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C392" s="8">
         <v>128</v>
@@ -14454,10 +14454,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="34" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C393" s="8">
         <v>129</v>
@@ -14465,10 +14465,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="34" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C394" s="8">
         <v>130</v>
@@ -14476,10 +14476,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="34" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C395" s="8">
         <v>131</v>
@@ -14487,10 +14487,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="34" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C396" s="8">
         <v>132</v>
@@ -14498,10 +14498,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="34" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C397" s="8">
         <v>133</v>
@@ -14509,10 +14509,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C398" s="8">
         <v>134</v>
@@ -14520,10 +14520,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="34" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C399" s="8">
         <v>135</v>
@@ -14531,10 +14531,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="27" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B401" s="27" t="s">
         <v>1819</v>
-      </c>
-      <c r="B401" s="27" t="s">
-        <v>1820</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -14542,10 +14542,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="27" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B402" s="27" t="s">
         <v>1821</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1822</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14553,10 +14553,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="27" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1823</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1824</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14564,10 +14564,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="27" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B404" s="27" t="s">
         <v>1825</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>1826</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14575,10 +14575,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="27" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1827</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1828</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14586,10 +14586,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="27" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1834</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1835</v>
       </c>
       <c r="C407" s="3">
         <v>91</v>
@@ -14597,10 +14597,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="27" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B409" s="27" t="s">
         <v>1878</v>
-      </c>
-      <c r="B409" s="27" t="s">
-        <v>1879</v>
       </c>
       <c r="C409" s="3">
         <v>339</v>
@@ -14608,10 +14608,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>1884</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>1885</v>
       </c>
       <c r="C411" s="3">
         <v>326</v>
@@ -14619,37 +14619,37 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="34" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1886</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1887</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="18" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1888</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1889</v>
       </c>
       <c r="C414" s="9"/>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="18" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1890</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1891</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="18" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1892</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1893</v>
       </c>
       <c r="C416" s="57">
         <v>22</v>
@@ -14657,10 +14657,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="18" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1894</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1895</v>
       </c>
       <c r="C417" s="57">
         <v>22</v>
@@ -14668,10 +14668,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="18" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1896</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1897</v>
       </c>
       <c r="C418" s="57">
         <v>22</v>
@@ -14679,10 +14679,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="18" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1898</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1899</v>
       </c>
       <c r="C419" s="57">
         <v>23</v>
@@ -14690,10 +14690,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="18" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1900</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1901</v>
       </c>
       <c r="C420" s="57">
         <v>23</v>
@@ -14701,10 +14701,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="18" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1902</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1903</v>
       </c>
       <c r="C421" s="9">
         <v>24</v>
@@ -14712,10 +14712,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="18" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1904</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1905</v>
       </c>
       <c r="C422" s="9">
         <v>25</v>
@@ -14723,10 +14723,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="18" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1906</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1907</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -14734,10 +14734,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="18" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1908</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1909</v>
       </c>
       <c r="C424" s="9">
         <v>26</v>
@@ -14745,10 +14745,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="18" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1910</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1911</v>
       </c>
       <c r="C425" s="9">
         <v>26</v>
@@ -14756,10 +14756,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="27" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B427" s="27" t="s">
         <v>1915</v>
-      </c>
-      <c r="B427" s="27" t="s">
-        <v>1916</v>
       </c>
       <c r="C427" s="3">
         <v>342</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="27" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C429" s="3">
         <v>344</v>
@@ -14778,10 +14778,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="27" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B430" s="27" t="s">
         <v>1973</v>
-      </c>
-      <c r="B430" s="27" t="s">
-        <v>1974</v>
       </c>
       <c r="C430" s="3">
         <v>345</v>
@@ -14789,10 +14789,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="27" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C432" s="3">
         <v>346</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="27" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C434" s="3">
         <v>347</v>
@@ -14811,10 +14811,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="27" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1962</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1963</v>
       </c>
       <c r="C435" s="3">
         <v>348</v>
@@ -14822,10 +14822,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="27" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B437" s="27" t="s">
         <v>1978</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1979</v>
       </c>
       <c r="C437" s="3">
         <v>351</v>
@@ -14833,10 +14833,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="27" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1980</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1981</v>
       </c>
       <c r="C438" s="3">
         <v>352</v>
@@ -14844,10 +14844,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="27" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1989</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1990</v>
       </c>
       <c r="C440" s="3">
         <v>353</v>
@@ -14855,10 +14855,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>1996</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>1997</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14866,10 +14866,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="27" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>2002</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>2003</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -15077,7 +15077,7 @@
         <v>1509</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15233,7 +15233,7 @@
         <v>467</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1176</v>
@@ -20945,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>772</v>
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -24551,7 +24551,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1627</v>
@@ -24744,7 +24744,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24778,7 +24778,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24812,7 +24812,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1" x14ac:dyDescent="0.2">
@@ -24823,10 +24823,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24846,7 +24846,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -25081,7 +25081,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1679</v>
@@ -25209,7 +25209,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1686</v>
@@ -25659,7 +25659,7 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D318" s="30" t="s">
         <v>1730</v>
@@ -25723,7 +25723,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D320" s="16" t="s">
         <v>1734</v>
@@ -25787,10 +25787,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25808,7 +25808,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -25819,10 +25819,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25840,7 +25840,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -25851,10 +25851,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25883,10 +25883,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25915,10 +25915,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="30" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25936,7 +25936,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -25947,10 +25947,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="30" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25968,7 +25968,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25979,10 +25979,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -26011,10 +26011,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1837</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1838</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26043,10 +26043,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26058,7 +26058,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26075,10 +26075,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1840</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1841</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26107,10 +26107,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -26130,7 +26130,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -26141,10 +26141,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26156,7 +26156,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26173,10 +26173,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26207,10 +26207,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1917</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1918</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26230,7 +26230,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -26241,10 +26241,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1920</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1921</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26258,13 +26258,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26307,10 +26307,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26341,10 +26341,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D339" s="30" t="s">
         <v>2004</v>
-      </c>
-      <c r="D339" s="30" t="s">
-        <v>2005</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26373,10 +26373,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26405,10 +26405,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26437,10 +26437,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26469,10 +26469,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26501,10 +26501,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26533,10 +26533,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26565,10 +26565,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26597,10 +26597,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="79" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G347" s="26">
         <v>364</v>
@@ -26629,10 +26629,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="30" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D348" s="92" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G348" s="26">
         <v>365</v>
@@ -26661,10 +26661,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D349" s="92" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G349" s="26">
         <v>366</v>
@@ -26698,11 +26698,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I921"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C892" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G921" sqref="G921"/>
+      <selection pane="bottomRight" activeCell="D905" sqref="D905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28899,7 +28899,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30118,7 +30118,7 @@
         <v>1043</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E147" s="112">
         <v>2</v>
@@ -30187,7 +30187,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30196,7 +30196,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -30854,7 +30854,7 @@
         <v>1043</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30877,7 +30877,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30886,7 +30886,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31268,7 +31268,7 @@
         <v>1043</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -31291,7 +31291,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -31300,7 +31300,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="104" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -35446,7 +35446,7 @@
         <v>1166</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -40461,7 +40461,7 @@
         <v>1166</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -40507,7 +40507,7 @@
         <v>1166</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -40530,7 +40530,7 @@
         <v>1166</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -40553,7 +40553,7 @@
         <v>1166</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -40599,7 +40599,7 @@
         <v>1166</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -40645,7 +40645,7 @@
         <v>1166</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -40668,7 +40668,7 @@
         <v>1166</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -40691,7 +40691,7 @@
         <v>1166</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -40737,7 +40737,7 @@
         <v>1166</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -40783,7 +40783,7 @@
         <v>1166</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -40806,7 +40806,7 @@
         <v>1166</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -40829,7 +40829,7 @@
         <v>1166</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -40875,7 +40875,7 @@
         <v>1166</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -40921,7 +40921,7 @@
         <v>1166</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -40944,7 +40944,7 @@
         <v>1166</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -40967,7 +40967,7 @@
         <v>1166</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41013,7 +41013,7 @@
         <v>1166</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -41059,7 +41059,7 @@
         <v>1166</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -41082,7 +41082,7 @@
         <v>1166</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -41105,7 +41105,7 @@
         <v>1166</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41151,7 +41151,7 @@
         <v>1166</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -41197,7 +41197,7 @@
         <v>1166</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -41220,7 +41220,7 @@
         <v>1166</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -41243,7 +41243,7 @@
         <v>1166</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -41787,7 +41787,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="53" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
@@ -42238,7 +42238,7 @@
         <v>1166</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -43673,7 +43673,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -43857,7 +43857,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -45274,7 +45274,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -45343,7 +45343,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -45352,7 +45352,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.2">
@@ -45550,7 +45550,7 @@
         <v>863</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -45665,7 +45665,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -45688,7 +45688,7 @@
         <v>1043</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -45697,7 +45697,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
@@ -45711,16 +45711,16 @@
         <v>1043</v>
       </c>
       <c r="D824" s="10" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E824" s="8">
+        <v>2</v>
+      </c>
+      <c r="F824" s="8">
+        <v>2</v>
+      </c>
+      <c r="G824" s="10" t="s">
         <v>1816</v>
-      </c>
-      <c r="E824" s="8">
-        <v>2</v>
-      </c>
-      <c r="F824" s="8">
-        <v>2</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="825" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -45734,7 +45734,7 @@
         <v>1043</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -45754,10 +45754,10 @@
         <v>328</v>
       </c>
       <c r="C826" s="53" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -45766,7 +45766,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.2">
@@ -45780,7 +45780,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -45789,7 +45789,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="53" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.2">
@@ -45803,7 +45803,7 @@
         <v>895</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -45812,7 +45812,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="9" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.2">
@@ -45826,7 +45826,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -45835,7 +45835,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.2">
@@ -45846,7 +45846,7 @@
         <v>330</v>
       </c>
       <c r="C830" s="53" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D830" s="9">
         <v>1</v>
@@ -45858,7 +45858,7 @@
         <v>1</v>
       </c>
       <c r="G830" s="53" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -45869,7 +45869,7 @@
         <v>330</v>
       </c>
       <c r="C831" s="53" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D831" s="9">
         <v>3</v>
@@ -45881,7 +45881,7 @@
         <v>1</v>
       </c>
       <c r="G831" s="53" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -45895,7 +45895,7 @@
         <v>1063</v>
       </c>
       <c r="D832" s="53" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E832" s="9">
         <v>5</v>
@@ -45904,7 +45904,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="53" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -45918,7 +45918,7 @@
         <v>863</v>
       </c>
       <c r="D833" s="10" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E833" s="9">
         <v>2</v>
@@ -45927,7 +45927,7 @@
         <v>2</v>
       </c>
       <c r="G833" s="53" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -45950,7 +45950,7 @@
         <v>2</v>
       </c>
       <c r="G834" s="9" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -45973,7 +45973,7 @@
         <v>3</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -45987,7 +45987,7 @@
         <v>863</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="E836" s="9">
         <v>5</v>
@@ -45996,7 +45996,7 @@
         <v>3</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -46019,7 +46019,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="53" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -46042,7 +46042,7 @@
         <v>1</v>
       </c>
       <c r="G838" s="53" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -46065,7 +46065,7 @@
         <v>1</v>
       </c>
       <c r="G839" s="53" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -46088,7 +46088,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="53" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -46102,7 +46102,7 @@
         <v>1043</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E841" s="9">
         <v>5</v>
@@ -46111,7 +46111,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="53" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -46148,7 +46148,7 @@
         <v>1043</v>
       </c>
       <c r="D843" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E843" s="9">
         <v>2</v>
@@ -46157,7 +46157,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -46200,7 +46200,7 @@
         <v>1043</v>
       </c>
       <c r="D845" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E845" s="9">
         <v>2</v>
@@ -46209,7 +46209,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -46220,10 +46220,10 @@
         <v>336</v>
       </c>
       <c r="C846" s="98" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D846" s="99" t="s">
         <v>1848</v>
-      </c>
-      <c r="D846" s="99" t="s">
-        <v>1849</v>
       </c>
       <c r="E846" s="98">
         <v>5</v>
@@ -46232,7 +46232,7 @@
         <v>1</v>
       </c>
       <c r="G846" s="99" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H846" s="9" t="s">
         <v>874</v>
@@ -46252,7 +46252,7 @@
         <v>1043</v>
       </c>
       <c r="D847" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E847" s="9">
         <v>5</v>
@@ -46261,7 +46261,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="9" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="848" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
@@ -46275,16 +46275,16 @@
         <v>1043</v>
       </c>
       <c r="D848" s="107" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E848" s="106">
+        <v>2</v>
+      </c>
+      <c r="F848" s="106">
+        <v>1</v>
+      </c>
+      <c r="G848" s="107" t="s">
         <v>1859</v>
-      </c>
-      <c r="E848" s="106">
-        <v>2</v>
-      </c>
-      <c r="F848" s="106">
-        <v>1</v>
-      </c>
-      <c r="G848" s="107" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.2">
@@ -46307,7 +46307,7 @@
         <v>1</v>
       </c>
       <c r="G849" s="107" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="850" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -46330,7 +46330,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="106" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="851" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -46344,7 +46344,7 @@
         <v>1043</v>
       </c>
       <c r="D851" s="14" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E851" s="14">
         <v>5</v>
@@ -46353,7 +46353,7 @@
         <v>1</v>
       </c>
       <c r="G851" s="14" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="852" spans="1:7" s="106" customFormat="1" x14ac:dyDescent="0.2">
@@ -46364,19 +46364,19 @@
         <v>339</v>
       </c>
       <c r="C852" s="10" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D852" s="10" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E852" s="8">
+        <v>2</v>
+      </c>
+      <c r="F852" s="8">
+        <v>1</v>
+      </c>
+      <c r="G852" s="10" t="s">
         <v>1882</v>
-      </c>
-      <c r="D852" s="10" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E852" s="8">
-        <v>2</v>
-      </c>
-      <c r="F852" s="8">
-        <v>1</v>
-      </c>
-      <c r="G852" s="10" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="853" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46390,7 +46390,7 @@
         <v>1170</v>
       </c>
       <c r="D853" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E853" s="8">
         <v>5</v>
@@ -46399,7 +46399,7 @@
         <v>1</v>
       </c>
       <c r="G853" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="854" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46413,7 +46413,7 @@
         <v>1170</v>
       </c>
       <c r="D854" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E854" s="8">
         <v>2</v>
@@ -46422,7 +46422,7 @@
         <v>1</v>
       </c>
       <c r="G854" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="855" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46436,16 +46436,16 @@
         <v>1043</v>
       </c>
       <c r="D855" s="111" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E855" s="110">
+        <v>2</v>
+      </c>
+      <c r="F855" s="110">
+        <v>1</v>
+      </c>
+      <c r="G855" s="111" t="s">
         <v>1935</v>
-      </c>
-      <c r="E855" s="110">
-        <v>2</v>
-      </c>
-      <c r="F855" s="110">
-        <v>1</v>
-      </c>
-      <c r="G855" s="111" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="856" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46468,7 +46468,7 @@
         <v>1</v>
       </c>
       <c r="G856" s="111" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="857" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46482,7 +46482,7 @@
         <v>1043</v>
       </c>
       <c r="D857" s="111" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E857" s="110">
         <v>2</v>
@@ -46514,7 +46514,7 @@
         <v>2</v>
       </c>
       <c r="G858" s="111" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="859" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46528,7 +46528,7 @@
         <v>1043</v>
       </c>
       <c r="D859" s="111" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E859" s="110">
         <v>2</v>
@@ -46537,7 +46537,7 @@
         <v>3</v>
       </c>
       <c r="G859" s="111" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="860" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46560,7 +46560,7 @@
         <v>3</v>
       </c>
       <c r="G860" s="111" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="861" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46574,7 +46574,7 @@
         <v>1043</v>
       </c>
       <c r="D861" s="110" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E861" s="110">
         <v>2</v>
@@ -46583,7 +46583,7 @@
         <v>4</v>
       </c>
       <c r="G861" s="111" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="862" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46606,7 +46606,7 @@
         <v>4</v>
       </c>
       <c r="G862" s="111" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="863" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46617,7 +46617,7 @@
         <v>343</v>
       </c>
       <c r="C863" s="53" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D863" s="9">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         <v>1</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="864" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.2">
@@ -46640,10 +46640,10 @@
         <v>343</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D864" s="15" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E864" s="8">
         <v>5</v>
@@ -46652,7 +46652,7 @@
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.2">
@@ -46663,7 +46663,7 @@
         <v>343</v>
       </c>
       <c r="C865" s="53" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D865" s="9">
         <v>9</v>
@@ -46675,7 +46675,7 @@
         <v>2</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.2">
@@ -46689,7 +46689,7 @@
         <v>1170</v>
       </c>
       <c r="D866" s="15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E866" s="8">
         <v>5</v>
@@ -46698,7 +46698,7 @@
         <v>2</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -46712,7 +46712,7 @@
         <v>1170</v>
       </c>
       <c r="D867" s="15" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E867" s="14">
         <v>2</v>
@@ -46721,7 +46721,7 @@
         <v>3</v>
       </c>
       <c r="G867" s="15" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.2">
@@ -46735,7 +46735,7 @@
         <v>1170</v>
       </c>
       <c r="D868" s="15" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E868" s="14">
         <v>2</v>
@@ -46744,7 +46744,7 @@
         <v>4</v>
       </c>
       <c r="G868" s="15" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="869" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -46758,7 +46758,7 @@
         <v>863</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E869" s="8">
         <v>5</v>
@@ -46804,7 +46804,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="10" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E871" s="8">
         <v>2</v>
@@ -46850,7 +46850,7 @@
         <v>863</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
@@ -46896,7 +46896,7 @@
         <v>1043</v>
       </c>
       <c r="D875" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -46942,7 +46942,7 @@
         <v>1166</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -46951,7 +46951,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="878" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -46965,7 +46965,7 @@
         <v>1043</v>
       </c>
       <c r="D878" s="9" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E878" s="9">
         <v>2</v>
@@ -46974,7 +46974,7 @@
         <v>2</v>
       </c>
       <c r="G878" s="53" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.2">
@@ -46988,7 +46988,7 @@
         <v>1043</v>
       </c>
       <c r="D879" s="53" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E879" s="9">
         <v>2</v>
@@ -46997,7 +46997,7 @@
         <v>3</v>
       </c>
       <c r="G879" s="53" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.2">
@@ -47011,7 +47011,7 @@
         <v>1043</v>
       </c>
       <c r="D880" s="53" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E880" s="9">
         <v>2</v>
@@ -47020,7 +47020,7 @@
         <v>4</v>
       </c>
       <c r="G880" s="53" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.2">
@@ -47034,7 +47034,7 @@
         <v>1170</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -47043,7 +47043,7 @@
         <v>1</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.2">
@@ -47057,7 +47057,7 @@
         <v>1166</v>
       </c>
       <c r="D882" s="15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E882" s="8">
         <v>5</v>
@@ -47066,7 +47066,7 @@
         <v>1</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.2">
@@ -47089,7 +47089,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -47103,7 +47103,7 @@
         <v>1170</v>
       </c>
       <c r="D884" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E884" s="8">
         <v>2</v>
@@ -47126,7 +47126,7 @@
         <v>1166</v>
       </c>
       <c r="D885" s="15" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -47135,7 +47135,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.2">
@@ -47149,7 +47149,7 @@
         <v>1166</v>
       </c>
       <c r="D886" s="15" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E886" s="8">
         <v>2</v>
@@ -47158,7 +47158,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.2">
@@ -47169,7 +47169,7 @@
         <v>352</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D887" s="15" t="s">
         <v>1624</v>
@@ -47181,7 +47181,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -47195,7 +47195,7 @@
         <v>1166</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E888" s="8">
         <v>2</v>
@@ -47204,7 +47204,7 @@
         <v>3</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.2">
@@ -47215,19 +47215,19 @@
         <v>353</v>
       </c>
       <c r="C889" s="10" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D889" s="15" t="s">
         <v>1991</v>
       </c>
-      <c r="D889" s="15" t="s">
+      <c r="E889" s="8">
+        <v>2</v>
+      </c>
+      <c r="F889" s="8">
+        <v>1</v>
+      </c>
+      <c r="G889" s="10" t="s">
         <v>1992</v>
-      </c>
-      <c r="E889" s="8">
-        <v>2</v>
-      </c>
-      <c r="F889" s="8">
-        <v>1</v>
-      </c>
-      <c r="G889" s="10" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -47241,7 +47241,7 @@
         <v>1166</v>
       </c>
       <c r="D890" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E890" s="8">
         <v>5</v>
@@ -47250,7 +47250,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -47264,7 +47264,7 @@
         <v>1043</v>
       </c>
       <c r="D891" s="10" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E891" s="8">
         <v>5</v>
@@ -47296,7 +47296,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.2">
@@ -47310,7 +47310,7 @@
         <v>1166</v>
       </c>
       <c r="D893" s="15" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E893" s="14">
         <v>2</v>
@@ -47342,7 +47342,7 @@
         <v>2</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.2">
@@ -47356,7 +47356,7 @@
         <v>1166</v>
       </c>
       <c r="D895" s="15" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E895" s="14">
         <v>2</v>
@@ -47379,7 +47379,7 @@
         <v>1166</v>
       </c>
       <c r="D896" s="53" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E896" s="9">
         <v>5</v>
@@ -47388,7 +47388,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.2">
@@ -47411,7 +47411,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.2">
@@ -47425,7 +47425,7 @@
         <v>1166</v>
       </c>
       <c r="D898" s="53" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E898" s="9">
         <v>5</v>
@@ -47434,7 +47434,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.2">
@@ -47457,7 +47457,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="53" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.2">
@@ -47480,7 +47480,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="53" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.2">
@@ -47494,7 +47494,7 @@
         <v>1166</v>
       </c>
       <c r="D901" s="53" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E901" s="9">
         <v>5</v>
@@ -47503,7 +47503,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="53" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.2">
@@ -47526,7 +47526,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="53" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.2">
@@ -47549,7 +47549,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="53" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.2">
@@ -47563,7 +47563,7 @@
         <v>1166</v>
       </c>
       <c r="D904" s="53" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E904" s="9">
         <v>5</v>
@@ -47572,7 +47572,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="53" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.2">
@@ -47595,7 +47595,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="53" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="906" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47609,16 +47609,16 @@
         <v>1166</v>
       </c>
       <c r="D906" s="15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E906" s="14">
+        <v>2</v>
+      </c>
+      <c r="F906" s="14">
+        <v>1</v>
+      </c>
+      <c r="G906" s="15" t="s">
         <v>2007</v>
-      </c>
-      <c r="E906" s="14">
-        <v>2</v>
-      </c>
-      <c r="F906" s="14">
-        <v>1</v>
-      </c>
-      <c r="G906" s="15" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="907" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47641,7 +47641,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="908" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47655,16 +47655,16 @@
         <v>1166</v>
       </c>
       <c r="D908" s="15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E908" s="14">
+        <v>2</v>
+      </c>
+      <c r="F908" s="14">
+        <v>1</v>
+      </c>
+      <c r="G908" s="15" t="s">
         <v>2007</v>
-      </c>
-      <c r="E908" s="14">
-        <v>2</v>
-      </c>
-      <c r="F908" s="14">
-        <v>1</v>
-      </c>
-      <c r="G908" s="15" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="909" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47687,7 +47687,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="910" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47710,7 +47710,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="911" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47724,16 +47724,16 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E911" s="14">
+        <v>2</v>
+      </c>
+      <c r="F911" s="14">
+        <v>1</v>
+      </c>
+      <c r="G911" s="15" t="s">
         <v>2007</v>
-      </c>
-      <c r="E911" s="14">
-        <v>2</v>
-      </c>
-      <c r="F911" s="14">
-        <v>1</v>
-      </c>
-      <c r="G911" s="15" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="912" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47756,7 +47756,7 @@
         <v>1</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47779,7 +47779,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47793,16 +47793,16 @@
         <v>1166</v>
       </c>
       <c r="D914" s="15" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E914" s="14">
+        <v>2</v>
+      </c>
+      <c r="F914" s="14">
+        <v>1</v>
+      </c>
+      <c r="G914" s="15" t="s">
         <v>2007</v>
-      </c>
-      <c r="E914" s="14">
-        <v>2</v>
-      </c>
-      <c r="F914" s="14">
-        <v>1</v>
-      </c>
-      <c r="G914" s="15" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47825,7 +47825,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47839,7 +47839,7 @@
         <v>1166</v>
       </c>
       <c r="D916" s="15" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E916" s="14">
         <v>2</v>
@@ -47848,7 +47848,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="15" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="917" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47871,7 +47871,7 @@
         <v>1</v>
       </c>
       <c r="G917" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="918" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47885,7 +47885,7 @@
         <v>1166</v>
       </c>
       <c r="D918" s="15" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E918" s="14">
         <v>2</v>
@@ -47894,7 +47894,7 @@
         <v>2</v>
       </c>
       <c r="G918" s="15" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="919" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47917,7 +47917,7 @@
         <v>2</v>
       </c>
       <c r="G919" s="15" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="920" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47940,7 +47940,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="15" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="921" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47963,7 +47963,7 @@
         <v>1</v>
       </c>
       <c r="G921" s="15" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
   </sheetData>
@@ -47978,8 +47978,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48113,13 +48113,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -48136,10 +48136,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1619</v>
@@ -48165,7 +48165,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1745</v>
+        <v>2028</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48182,13 +48182,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48197,7 +48197,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -48205,13 +48205,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -48220,7 +48220,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -48228,13 +48228,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -48243,7 +48243,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
   </sheetData>
@@ -48336,7 +48336,7 @@
         <v>863</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8035,10 +8035,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"vivo","xiaomi",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>lxdh_025_notnew</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9339,6 +9335,10 @@
   </si>
   <si>
     <t>VIP等级12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11404,7 +11404,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11440,7 +11440,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11579,7 +11579,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -12561,7 +12561,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="34" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>293</v>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="200" spans="1:10" s="65" customFormat="1">
       <c r="A200" s="64" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B200" s="64" t="s">
         <v>330</v>
@@ -14119,7 +14119,7 @@
         <v>1387</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C351" s="3">
         <v>226</v>
@@ -14182,10 +14182,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="27" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B357" s="27" t="s">
         <v>1843</v>
-      </c>
-      <c r="B357" s="27" t="s">
-        <v>1844</v>
       </c>
       <c r="C357" s="3">
         <v>8</v>
@@ -14193,10 +14193,10 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="27" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C358" s="3">
         <v>343</v>
@@ -14215,10 +14215,10 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="27" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B362" s="34" t="s">
         <v>1804</v>
-      </c>
-      <c r="B362" s="34" t="s">
-        <v>1805</v>
       </c>
       <c r="C362" s="3">
         <v>332</v>
@@ -14229,7 +14229,7 @@
         <v>1469</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C363" s="3">
         <v>242</v>
@@ -14251,7 +14251,7 @@
         <v>1465</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C365" s="3">
         <v>244</v>
@@ -14262,7 +14262,7 @@
         <v>1503</v>
       </c>
       <c r="B368" s="27" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C368" s="3">
         <v>248</v>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="27" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B370" s="27" t="s">
         <v>1527</v>
@@ -14347,10 +14347,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C383" s="3">
         <v>326</v>
@@ -14358,10 +14358,10 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="27" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B385" s="27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C385" s="3">
         <v>327</v>
@@ -14369,10 +14369,10 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="27" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C387" s="3">
         <v>328</v>
@@ -14380,10 +14380,10 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="27" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B389" s="27" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C389" s="3">
         <v>319</v>
@@ -14391,10 +14391,10 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="34" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C391" s="8">
         <v>127</v>
@@ -14402,10 +14402,10 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="34" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C392" s="8">
         <v>128</v>
@@ -14413,10 +14413,10 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="34" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C393" s="8">
         <v>129</v>
@@ -14424,10 +14424,10 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="34" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C394" s="8">
         <v>130</v>
@@ -14435,10 +14435,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="34" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C395" s="8">
         <v>131</v>
@@ -14446,10 +14446,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="34" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C396" s="8">
         <v>132</v>
@@ -14457,10 +14457,10 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="34" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C397" s="8">
         <v>133</v>
@@ -14468,10 +14468,10 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="34" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C398" s="8">
         <v>134</v>
@@ -14479,10 +14479,10 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="34" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C399" s="8">
         <v>135</v>
@@ -14490,10 +14490,10 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="27" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B401" s="27" t="s">
         <v>1812</v>
-      </c>
-      <c r="B401" s="27" t="s">
-        <v>1813</v>
       </c>
       <c r="C401" s="3">
         <v>333</v>
@@ -14501,10 +14501,10 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="27" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B402" s="27" t="s">
         <v>1814</v>
-      </c>
-      <c r="B402" s="27" t="s">
-        <v>1815</v>
       </c>
       <c r="C402" s="3">
         <v>333</v>
@@ -14512,10 +14512,10 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="27" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B403" s="27" t="s">
         <v>1816</v>
-      </c>
-      <c r="B403" s="27" t="s">
-        <v>1817</v>
       </c>
       <c r="C403" s="3">
         <v>333</v>
@@ -14523,10 +14523,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="27" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B404" s="27" t="s">
         <v>1818</v>
-      </c>
-      <c r="B404" s="27" t="s">
-        <v>1819</v>
       </c>
       <c r="C404" s="3">
         <v>333</v>
@@ -14534,10 +14534,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="27" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B405" s="27" t="s">
         <v>1820</v>
-      </c>
-      <c r="B405" s="27" t="s">
-        <v>1821</v>
       </c>
       <c r="C405" s="3">
         <v>333</v>
@@ -14545,10 +14545,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="27" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1827</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1828</v>
       </c>
       <c r="C407" s="3">
         <v>91</v>
@@ -14556,10 +14556,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="27" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B409" s="27" t="s">
         <v>1868</v>
-      </c>
-      <c r="B409" s="27" t="s">
-        <v>1869</v>
       </c>
       <c r="C409" s="3">
         <v>339</v>
@@ -14567,10 +14567,10 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B411" s="3" t="s">
         <v>1873</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>1874</v>
       </c>
       <c r="C411" s="3">
         <v>326</v>
@@ -14578,37 +14578,37 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="34" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B413" s="10" t="s">
         <v>1875</v>
-      </c>
-      <c r="B413" s="10" t="s">
-        <v>1876</v>
       </c>
       <c r="C413" s="9"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="18" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B414" s="10" t="s">
         <v>1877</v>
-      </c>
-      <c r="B414" s="10" t="s">
-        <v>1878</v>
       </c>
       <c r="C414" s="9"/>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="18" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>1879</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>1880</v>
       </c>
       <c r="C415" s="9"/>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="18" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>1881</v>
-      </c>
-      <c r="B416" s="10" t="s">
-        <v>1882</v>
       </c>
       <c r="C416" s="57">
         <v>22</v>
@@ -14616,10 +14616,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B417" s="10" t="s">
         <v>1883</v>
-      </c>
-      <c r="B417" s="10" t="s">
-        <v>1884</v>
       </c>
       <c r="C417" s="57">
         <v>22</v>
@@ -14627,10 +14627,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="18" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B418" s="10" t="s">
         <v>1885</v>
-      </c>
-      <c r="B418" s="10" t="s">
-        <v>1886</v>
       </c>
       <c r="C418" s="57">
         <v>22</v>
@@ -14638,10 +14638,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="18" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B419" s="10" t="s">
         <v>1887</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>1888</v>
       </c>
       <c r="C419" s="57">
         <v>23</v>
@@ -14649,10 +14649,10 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="18" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B420" s="10" t="s">
         <v>1889</v>
-      </c>
-      <c r="B420" s="10" t="s">
-        <v>1890</v>
       </c>
       <c r="C420" s="57">
         <v>23</v>
@@ -14660,10 +14660,10 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="18" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B421" s="10" t="s">
         <v>1891</v>
-      </c>
-      <c r="B421" s="10" t="s">
-        <v>1892</v>
       </c>
       <c r="C421" s="9">
         <v>24</v>
@@ -14671,10 +14671,10 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="18" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B422" s="10" t="s">
         <v>1893</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>1894</v>
       </c>
       <c r="C422" s="9">
         <v>25</v>
@@ -14682,10 +14682,10 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="18" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B423" s="10" t="s">
         <v>1895</v>
-      </c>
-      <c r="B423" s="10" t="s">
-        <v>1896</v>
       </c>
       <c r="C423" s="9">
         <v>26</v>
@@ -14693,10 +14693,10 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="18" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B424" s="10" t="s">
         <v>1897</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>1898</v>
       </c>
       <c r="C424" s="9">
         <v>26</v>
@@ -14704,10 +14704,10 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="18" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B425" s="10" t="s">
         <v>1899</v>
-      </c>
-      <c r="B425" s="10" t="s">
-        <v>1900</v>
       </c>
       <c r="C425" s="9">
         <v>26</v>
@@ -14715,10 +14715,10 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="27" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B427" s="27" t="s">
         <v>1904</v>
-      </c>
-      <c r="B427" s="27" t="s">
-        <v>1905</v>
       </c>
       <c r="C427" s="3">
         <v>342</v>
@@ -14726,10 +14726,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C429" s="3">
         <v>344</v>
@@ -14737,10 +14737,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B430" s="27" t="s">
         <v>1962</v>
-      </c>
-      <c r="B430" s="27" t="s">
-        <v>1963</v>
       </c>
       <c r="C430" s="3">
         <v>345</v>
@@ -14748,10 +14748,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C432" s="3">
         <v>346</v>
@@ -14759,10 +14759,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="27" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C434" s="3">
         <v>347</v>
@@ -14770,10 +14770,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B435" s="27" t="s">
         <v>1951</v>
-      </c>
-      <c r="B435" s="27" t="s">
-        <v>1952</v>
       </c>
       <c r="C435" s="3">
         <v>348</v>
@@ -14781,10 +14781,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="27" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B437" s="27" t="s">
         <v>1967</v>
-      </c>
-      <c r="B437" s="27" t="s">
-        <v>1968</v>
       </c>
       <c r="C437" s="3">
         <v>351</v>
@@ -14792,10 +14792,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B438" s="27" t="s">
         <v>1969</v>
-      </c>
-      <c r="B438" s="27" t="s">
-        <v>1970</v>
       </c>
       <c r="C438" s="3">
         <v>352</v>
@@ -14803,10 +14803,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="27" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1978</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1979</v>
       </c>
       <c r="C440" s="3">
         <v>353</v>
@@ -14814,10 +14814,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B442" s="3" t="s">
         <v>1985</v>
-      </c>
-      <c r="B442" s="3" t="s">
-        <v>1986</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14825,10 +14825,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B444" s="27" t="s">
         <v>1991</v>
-      </c>
-      <c r="B444" s="27" t="s">
-        <v>1992</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -15036,7 +15036,7 @@
         <v>1509</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="O4" s="17"/>
     </row>
@@ -15192,7 +15192,7 @@
         <v>467</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>1176</v>
@@ -20904,7 +20904,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>772</v>
@@ -21451,7 +21451,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="44" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D192" s="44" t="s">
         <v>801</v>
@@ -24510,7 +24510,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>1627</v>
@@ -24703,7 +24703,7 @@
         <v>1605542400</v>
       </c>
       <c r="L289" s="78" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="80" customFormat="1">
@@ -24737,7 +24737,7 @@
         <v>1605542400</v>
       </c>
       <c r="L290" s="78" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="80" customFormat="1">
@@ -24771,7 +24771,7 @@
         <v>1605542400</v>
       </c>
       <c r="L291" s="78" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="80" customFormat="1">
@@ -24782,10 +24782,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="79" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -24805,7 +24805,7 @@
         <v>1605542400</v>
       </c>
       <c r="L292" s="109" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="C300" s="30" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D300" s="16" t="s">
         <v>1679</v>
@@ -25168,7 +25168,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1686</v>
@@ -25618,7 +25618,7 @@
         <v>1</v>
       </c>
       <c r="C318" s="30" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D318" s="30" t="s">
         <v>1730</v>
@@ -25682,7 +25682,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="30" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D320" s="16" t="s">
         <v>1734</v>
@@ -25746,10 +25746,10 @@
         <v>1</v>
       </c>
       <c r="C322" s="30" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D322" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G322" s="26">
         <v>328</v>
@@ -25767,7 +25767,7 @@
         <v>1603152000</v>
       </c>
       <c r="L322" s="30" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -25778,10 +25778,10 @@
         <v>1</v>
       </c>
       <c r="C323" s="30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D323" s="30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G323" s="26">
         <v>329</v>
@@ -25799,7 +25799,7 @@
         <v>1603152000</v>
       </c>
       <c r="L323" s="30" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -25810,10 +25810,10 @@
         <v>1</v>
       </c>
       <c r="C324" s="30" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D324" s="30" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G324" s="26">
         <v>326</v>
@@ -25842,10 +25842,10 @@
         <v>1</v>
       </c>
       <c r="C325" s="30" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D325" s="30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G325" s="26">
         <v>327</v>
@@ -25874,10 +25874,10 @@
         <v>1</v>
       </c>
       <c r="C326" s="118" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D326" s="30" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G326" s="26">
         <v>330</v>
@@ -25895,7 +25895,7 @@
         <v>1603756800</v>
       </c>
       <c r="L326" s="30" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -25906,10 +25906,10 @@
         <v>1</v>
       </c>
       <c r="C327" s="118" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D327" s="30" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G327" s="26">
         <v>331</v>
@@ -25927,7 +25927,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -25938,10 +25938,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -25970,10 +25970,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D329" s="26" t="s">
         <v>1830</v>
-      </c>
-      <c r="D329" s="26" t="s">
-        <v>1831</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -26002,10 +26002,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -26017,7 +26017,7 @@
         <v>1</v>
       </c>
       <c r="J330" s="30" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K330" s="26">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D331" s="26" t="s">
         <v>1833</v>
-      </c>
-      <c r="D331" s="26" t="s">
-        <v>1834</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -26066,10 +26066,10 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D332" s="101" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="E332" s="100"/>
       <c r="F332" s="100"/>
@@ -26089,7 +26089,7 @@
         <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -26100,10 +26100,10 @@
         <v>1</v>
       </c>
       <c r="C333" s="30" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G333" s="26">
         <v>337</v>
@@ -26115,7 +26115,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="K333" s="26">
         <v>0</v>
@@ -26132,10 +26132,10 @@
         <v>1</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -26166,10 +26166,10 @@
         <v>1</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>1906</v>
-      </c>
-      <c r="D335" s="16" t="s">
-        <v>1907</v>
       </c>
       <c r="E335" s="17"/>
       <c r="F335" s="17"/>
@@ -26189,7 +26189,7 @@
         <v>1606176000</v>
       </c>
       <c r="L335" s="16" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="336" spans="1:12" s="22" customFormat="1">
@@ -26200,10 +26200,10 @@
         <v>1</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>1909</v>
-      </c>
-      <c r="D336" s="16" t="s">
-        <v>1910</v>
       </c>
       <c r="E336" s="17"/>
       <c r="F336" s="17"/>
@@ -26217,13 +26217,13 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -26234,10 +26234,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26266,10 +26266,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D338" s="30" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26300,10 +26300,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D339" s="30" t="s">
         <v>1993</v>
-      </c>
-      <c r="D339" s="30" t="s">
-        <v>1994</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26332,10 +26332,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26364,10 +26364,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26396,10 +26396,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26428,10 +26428,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26460,10 +26460,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26492,10 +26492,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26524,10 +26524,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26556,10 +26556,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="79" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G347" s="26">
         <v>364</v>
@@ -26588,10 +26588,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="30" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D348" s="92" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G348" s="26">
         <v>365</v>
@@ -26620,10 +26620,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="30" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D349" s="92" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G349" s="26">
         <v>366</v>
@@ -26657,11 +26657,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C812" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E831" sqref="E831"/>
+      <selection pane="bottomRight" activeCell="D824" sqref="D824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28858,7 +28858,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30081,7 +30081,7 @@
         <v>1043</v>
       </c>
       <c r="D147" s="113" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E147" s="112">
         <v>2</v>
@@ -30156,7 +30156,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30165,7 +30165,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -30825,7 +30825,7 @@
         <v>1043</v>
       </c>
       <c r="D179" s="94" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -30848,7 +30848,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -30857,7 +30857,7 @@
         <v>5</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="8" customFormat="1">
@@ -31255,7 +31255,7 @@
         <v>1043</v>
       </c>
       <c r="D197" s="105" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E197" s="103">
         <v>2</v>
@@ -31280,7 +31280,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -31289,7 +31289,7 @@
         <v>5</v>
       </c>
       <c r="G198" s="104" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -35461,7 +35461,7 @@
         <v>1166</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -40685,7 +40685,7 @@
         <v>1166</v>
       </c>
       <c r="D596" s="10" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E596" s="8">
         <v>5</v>
@@ -40735,7 +40735,7 @@
         <v>1166</v>
       </c>
       <c r="D598" s="10" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E598" s="8">
         <v>5</v>
@@ -40760,7 +40760,7 @@
         <v>1166</v>
       </c>
       <c r="D599" s="10" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E599" s="14">
         <v>2</v>
@@ -40785,7 +40785,7 @@
         <v>1166</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -40835,7 +40835,7 @@
         <v>1166</v>
       </c>
       <c r="D602" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E602" s="14">
         <v>5</v>
@@ -40885,7 +40885,7 @@
         <v>1166</v>
       </c>
       <c r="D604" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E604" s="14">
         <v>5</v>
@@ -40910,7 +40910,7 @@
         <v>1166</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E605" s="14">
         <v>2</v>
@@ -40935,7 +40935,7 @@
         <v>1166</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -40985,7 +40985,7 @@
         <v>1166</v>
       </c>
       <c r="D608" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E608" s="8">
         <v>5</v>
@@ -41035,7 +41035,7 @@
         <v>1166</v>
       </c>
       <c r="D610" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E610" s="8">
         <v>5</v>
@@ -41060,7 +41060,7 @@
         <v>1166</v>
       </c>
       <c r="D611" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E611" s="14">
         <v>2</v>
@@ -41085,7 +41085,7 @@
         <v>1166</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41135,7 +41135,7 @@
         <v>1166</v>
       </c>
       <c r="D614" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E614" s="8">
         <v>5</v>
@@ -41185,7 +41185,7 @@
         <v>1166</v>
       </c>
       <c r="D616" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E616" s="8">
         <v>5</v>
@@ -41210,7 +41210,7 @@
         <v>1166</v>
       </c>
       <c r="D617" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E617" s="14">
         <v>2</v>
@@ -41235,7 +41235,7 @@
         <v>1166</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41285,7 +41285,7 @@
         <v>1166</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E620" s="8">
         <v>5</v>
@@ -41335,7 +41335,7 @@
         <v>1166</v>
       </c>
       <c r="D622" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E622" s="8">
         <v>5</v>
@@ -41360,7 +41360,7 @@
         <v>1166</v>
       </c>
       <c r="D623" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E623" s="14">
         <v>2</v>
@@ -41385,7 +41385,7 @@
         <v>1166</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41435,7 +41435,7 @@
         <v>1166</v>
       </c>
       <c r="D626" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E626" s="8">
         <v>5</v>
@@ -41485,7 +41485,7 @@
         <v>1166</v>
       </c>
       <c r="D628" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E628" s="8">
         <v>5</v>
@@ -41510,7 +41510,7 @@
         <v>1166</v>
       </c>
       <c r="D629" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E629" s="14">
         <v>2</v>
@@ -41535,7 +41535,7 @@
         <v>1166</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="G653" s="53" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H653" s="8"/>
       <c r="I653" s="8"/>
@@ -42592,7 +42592,7 @@
         <v>1166</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E673" s="8">
         <v>2</v>
@@ -44141,7 +44141,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44341,7 +44341,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -45882,7 +45882,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -45957,7 +45957,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -45966,7 +45966,7 @@
         <v>1</v>
       </c>
       <c r="G808" s="53" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H808" s="8"/>
       <c r="I808" s="8"/>
@@ -46182,7 +46182,7 @@
         <v>863</v>
       </c>
       <c r="D817" s="10" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E817" s="8">
         <v>2</v>
@@ -46307,7 +46307,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -46332,7 +46332,7 @@
         <v>1043</v>
       </c>
       <c r="D823" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E823" s="14">
         <v>2</v>
@@ -46341,7 +46341,7 @@
         <v>1</v>
       </c>
       <c r="G823" s="15" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H823" s="8"/>
       <c r="I823" s="8"/>
@@ -46357,16 +46357,16 @@
         <v>1043</v>
       </c>
       <c r="D824" s="10" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E824" s="8">
+        <v>2</v>
+      </c>
+      <c r="F824" s="8">
+        <v>2</v>
+      </c>
+      <c r="G824" s="10" t="s">
         <v>1809</v>
-      </c>
-      <c r="E824" s="8">
-        <v>2</v>
-      </c>
-      <c r="F824" s="8">
-        <v>2</v>
-      </c>
-      <c r="G824" s="10" t="s">
-        <v>1810</v>
       </c>
       <c r="H824" s="8"/>
       <c r="I824" s="8"/>
@@ -46382,7 +46382,7 @@
         <v>1043</v>
       </c>
       <c r="D825" s="10" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E825" s="8">
         <v>2</v>
@@ -46404,10 +46404,10 @@
         <v>328</v>
       </c>
       <c r="C826" s="53" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D826" s="9" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E826" s="9">
         <v>5</v>
@@ -46416,7 +46416,7 @@
         <v>1</v>
       </c>
       <c r="G826" s="9" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="8"/>
@@ -46432,7 +46432,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -46441,7 +46441,7 @@
         <v>1</v>
       </c>
       <c r="G827" s="53" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H827" s="8"/>
       <c r="I827" s="8"/>
@@ -46457,7 +46457,7 @@
         <v>895</v>
       </c>
       <c r="D828" s="9" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E828" s="9">
         <v>5</v>
@@ -46466,7 +46466,7 @@
         <v>1</v>
       </c>
       <c r="G828" s="9" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H828" s="8"/>
       <c r="I828" s="8"/>
@@ -46482,7 +46482,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -46491,7 +46491,7 @@
         <v>1</v>
       </c>
       <c r="G829" s="53" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -46566,7 +46566,7 @@
         <v>1</v>
       </c>
       <c r="G832" s="117" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -46591,7 +46591,7 @@
         <v>1</v>
       </c>
       <c r="G833" s="117" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -46616,7 +46616,7 @@
         <v>1</v>
       </c>
       <c r="G834" s="10" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -46632,7 +46632,7 @@
         <v>1043</v>
       </c>
       <c r="D835" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E835" s="9">
         <v>5</v>
@@ -46641,7 +46641,7 @@
         <v>1</v>
       </c>
       <c r="G835" s="53" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -46682,7 +46682,7 @@
         <v>1043</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -46691,7 +46691,7 @@
         <v>1</v>
       </c>
       <c r="G837" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -46732,7 +46732,7 @@
         <v>1043</v>
       </c>
       <c r="D839" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E839" s="9">
         <v>2</v>
@@ -46741,7 +46741,7 @@
         <v>1</v>
       </c>
       <c r="G839" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -46754,10 +46754,10 @@
         <v>336</v>
       </c>
       <c r="C840" s="98" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D840" s="99" t="s">
         <v>1841</v>
-      </c>
-      <c r="D840" s="99" t="s">
-        <v>1842</v>
       </c>
       <c r="E840" s="98">
         <v>5</v>
@@ -46766,7 +46766,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="99" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -46782,7 +46782,7 @@
         <v>1043</v>
       </c>
       <c r="D841" s="9" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E841" s="9">
         <v>5</v>
@@ -46791,7 +46791,7 @@
         <v>1</v>
       </c>
       <c r="G841" s="9" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -46807,16 +46807,16 @@
         <v>1043</v>
       </c>
       <c r="D842" s="107" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E842" s="106">
+        <v>2</v>
+      </c>
+      <c r="F842" s="106">
+        <v>1</v>
+      </c>
+      <c r="G842" s="107" t="s">
         <v>1852</v>
-      </c>
-      <c r="E842" s="106">
-        <v>2</v>
-      </c>
-      <c r="F842" s="106">
-        <v>1</v>
-      </c>
-      <c r="G842" s="107" t="s">
-        <v>1853</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -46841,7 +46841,7 @@
         <v>1</v>
       </c>
       <c r="G843" s="107" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -46866,7 +46866,7 @@
         <v>1</v>
       </c>
       <c r="G844" s="106" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -46882,7 +46882,7 @@
         <v>1043</v>
       </c>
       <c r="D845" s="14" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E845" s="14">
         <v>5</v>
@@ -46891,7 +46891,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="14" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -46908,19 +46908,19 @@
         <v>339</v>
       </c>
       <c r="C846" s="10" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D846" s="10" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E846" s="8">
+        <v>2</v>
+      </c>
+      <c r="F846" s="8">
+        <v>1</v>
+      </c>
+      <c r="G846" s="10" t="s">
         <v>1871</v>
-      </c>
-      <c r="D846" s="10" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E846" s="8">
-        <v>2</v>
-      </c>
-      <c r="F846" s="8">
-        <v>1</v>
-      </c>
-      <c r="G846" s="10" t="s">
-        <v>1872</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -46936,7 +46936,7 @@
         <v>1170</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E847" s="8">
         <v>5</v>
@@ -46945,7 +46945,7 @@
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -46965,7 +46965,7 @@
         <v>1170</v>
       </c>
       <c r="D848" s="10" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E848" s="8">
         <v>2</v>
@@ -46974,7 +46974,7 @@
         <v>1</v>
       </c>
       <c r="G848" s="10" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -46990,16 +46990,16 @@
         <v>1043</v>
       </c>
       <c r="D849" s="111" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E849" s="110">
+        <v>2</v>
+      </c>
+      <c r="F849" s="110">
+        <v>1</v>
+      </c>
+      <c r="G849" s="111" t="s">
         <v>1924</v>
-      </c>
-      <c r="E849" s="110">
-        <v>2</v>
-      </c>
-      <c r="F849" s="110">
-        <v>1</v>
-      </c>
-      <c r="G849" s="111" t="s">
-        <v>1925</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47024,7 +47024,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="111" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
@@ -47040,7 +47040,7 @@
         <v>1043</v>
       </c>
       <c r="D851" s="111" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E851" s="110">
         <v>2</v>
@@ -47074,7 +47074,7 @@
         <v>2</v>
       </c>
       <c r="G852" s="111" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47090,7 +47090,7 @@
         <v>1043</v>
       </c>
       <c r="D853" s="111" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E853" s="110">
         <v>2</v>
@@ -47099,7 +47099,7 @@
         <v>3</v>
       </c>
       <c r="G853" s="111" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47124,7 +47124,7 @@
         <v>3</v>
       </c>
       <c r="G854" s="111" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H854" s="8"/>
       <c r="I854" s="8"/>
@@ -47140,7 +47140,7 @@
         <v>1043</v>
       </c>
       <c r="D855" s="110" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E855" s="110">
         <v>2</v>
@@ -47149,7 +47149,7 @@
         <v>4</v>
       </c>
       <c r="G855" s="111" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
@@ -47172,7 +47172,7 @@
         <v>4</v>
       </c>
       <c r="G856" s="111" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47183,7 +47183,7 @@
         <v>343</v>
       </c>
       <c r="C857" s="53" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D857" s="9">
         <v>1</v>
@@ -47195,7 +47195,7 @@
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="110" customFormat="1">
@@ -47206,10 +47206,10 @@
         <v>343</v>
       </c>
       <c r="C858" s="10" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D858" s="15" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E858" s="8">
         <v>5</v>
@@ -47218,7 +47218,7 @@
         <v>1</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47231,7 +47231,7 @@
         <v>343</v>
       </c>
       <c r="C859" s="53" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D859" s="9">
         <v>9</v>
@@ -47243,7 +47243,7 @@
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47259,7 +47259,7 @@
         <v>1170</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E860" s="8">
         <v>5</v>
@@ -47268,7 +47268,7 @@
         <v>2</v>
       </c>
       <c r="G860" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -47284,7 +47284,7 @@
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -47293,7 +47293,7 @@
         <v>3</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -47309,7 +47309,7 @@
         <v>1170</v>
       </c>
       <c r="D862" s="15" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E862" s="14">
         <v>2</v>
@@ -47318,7 +47318,7 @@
         <v>4</v>
       </c>
       <c r="G862" s="15" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -47334,7 +47334,7 @@
         <v>863</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E863" s="8">
         <v>5</v>
@@ -47384,7 +47384,7 @@
         <v>1043</v>
       </c>
       <c r="D865" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E865" s="8">
         <v>2</v>
@@ -47434,7 +47434,7 @@
         <v>863</v>
       </c>
       <c r="D867" s="10" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E867" s="8">
         <v>2</v>
@@ -47484,7 +47484,7 @@
         <v>1043</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E869" s="8">
         <v>2</v>
@@ -47534,7 +47534,7 @@
         <v>1166</v>
       </c>
       <c r="D871" s="15" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E871" s="8">
         <v>2</v>
@@ -47543,7 +47543,7 @@
         <v>1</v>
       </c>
       <c r="G871" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47559,7 +47559,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -47568,7 +47568,7 @@
         <v>2</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47582,7 +47582,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -47591,7 +47591,7 @@
         <v>3</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47605,7 +47605,7 @@
         <v>1043</v>
       </c>
       <c r="D874" s="53" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E874" s="9">
         <v>2</v>
@@ -47614,7 +47614,7 @@
         <v>4</v>
       </c>
       <c r="G874" s="53" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -47628,7 +47628,7 @@
         <v>1170</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E875" s="8">
         <v>2</v>
@@ -47637,7 +47637,7 @@
         <v>1</v>
       </c>
       <c r="G875" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="8" customFormat="1">
@@ -47651,7 +47651,7 @@
         <v>1166</v>
       </c>
       <c r="D876" s="15" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E876" s="8">
         <v>5</v>
@@ -47660,7 +47660,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -47683,7 +47683,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -47697,7 +47697,7 @@
         <v>1170</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E878" s="8">
         <v>2</v>
@@ -47720,7 +47720,7 @@
         <v>1166</v>
       </c>
       <c r="D879" s="15" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E879" s="8">
         <v>5</v>
@@ -47729,7 +47729,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -47743,7 +47743,7 @@
         <v>1166</v>
       </c>
       <c r="D880" s="15" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E880" s="8">
         <v>2</v>
@@ -47752,7 +47752,7 @@
         <v>1</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -47765,7 +47765,7 @@
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D881" s="15" t="s">
         <v>1624</v>
@@ -47777,7 +47777,7 @@
         <v>2</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -47793,7 +47793,7 @@
         <v>1166</v>
       </c>
       <c r="D882" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
@@ -47802,7 +47802,7 @@
         <v>3</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -47815,19 +47815,19 @@
         <v>353</v>
       </c>
       <c r="C883" s="10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D883" s="15" t="s">
         <v>1980</v>
       </c>
-      <c r="D883" s="15" t="s">
+      <c r="E883" s="8">
+        <v>2</v>
+      </c>
+      <c r="F883" s="8">
+        <v>1</v>
+      </c>
+      <c r="G883" s="10" t="s">
         <v>1981</v>
-      </c>
-      <c r="E883" s="8">
-        <v>2</v>
-      </c>
-      <c r="F883" s="8">
-        <v>1</v>
-      </c>
-      <c r="G883" s="10" t="s">
-        <v>1982</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -47843,7 +47843,7 @@
         <v>1166</v>
       </c>
       <c r="D884" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -47852,7 +47852,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -47868,7 +47868,7 @@
         <v>1043</v>
       </c>
       <c r="D885" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E885" s="8">
         <v>5</v>
@@ -47902,7 +47902,7 @@
         <v>1</v>
       </c>
       <c r="G886" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
@@ -47918,7 +47918,7 @@
         <v>1166</v>
       </c>
       <c r="D887" s="15" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E887" s="14">
         <v>2</v>
@@ -47952,7 +47952,7 @@
         <v>2</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -47968,7 +47968,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="15" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E889" s="14">
         <v>2</v>
@@ -47993,7 +47993,7 @@
         <v>1166</v>
       </c>
       <c r="D890" s="53" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E890" s="9">
         <v>5</v>
@@ -48002,7 +48002,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48027,7 +48027,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48043,7 +48043,7 @@
         <v>1166</v>
       </c>
       <c r="D892" s="53" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E892" s="9">
         <v>5</v>
@@ -48052,7 +48052,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48077,7 +48077,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48100,7 +48100,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48116,7 +48116,7 @@
         <v>1166</v>
       </c>
       <c r="D895" s="53" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E895" s="9">
         <v>5</v>
@@ -48125,7 +48125,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48150,7 +48150,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48175,7 +48175,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48191,7 +48191,7 @@
         <v>1166</v>
       </c>
       <c r="D898" s="53" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E898" s="9">
         <v>5</v>
@@ -48200,7 +48200,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48225,7 +48225,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="53" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48241,16 +48241,16 @@
         <v>1166</v>
       </c>
       <c r="D900" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E900" s="14">
+        <v>2</v>
+      </c>
+      <c r="F900" s="14">
+        <v>1</v>
+      </c>
+      <c r="G900" s="15" t="s">
         <v>1996</v>
-      </c>
-      <c r="E900" s="14">
-        <v>2</v>
-      </c>
-      <c r="F900" s="14">
-        <v>1</v>
-      </c>
-      <c r="G900" s="15" t="s">
-        <v>1997</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48275,7 +48275,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48289,16 +48289,16 @@
         <v>1166</v>
       </c>
       <c r="D902" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E902" s="14">
+        <v>2</v>
+      </c>
+      <c r="F902" s="14">
+        <v>1</v>
+      </c>
+      <c r="G902" s="15" t="s">
         <v>1996</v>
-      </c>
-      <c r="E902" s="14">
-        <v>2</v>
-      </c>
-      <c r="F902" s="14">
-        <v>1</v>
-      </c>
-      <c r="G902" s="15" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48321,7 +48321,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48344,7 +48344,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48358,16 +48358,16 @@
         <v>1166</v>
       </c>
       <c r="D905" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E905" s="14">
+        <v>2</v>
+      </c>
+      <c r="F905" s="14">
+        <v>1</v>
+      </c>
+      <c r="G905" s="15" t="s">
         <v>1996</v>
-      </c>
-      <c r="E905" s="14">
-        <v>2</v>
-      </c>
-      <c r="F905" s="14">
-        <v>1</v>
-      </c>
-      <c r="G905" s="15" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48390,7 +48390,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48413,7 +48413,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48427,16 +48427,16 @@
         <v>1166</v>
       </c>
       <c r="D908" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E908" s="14">
+        <v>2</v>
+      </c>
+      <c r="F908" s="14">
+        <v>1</v>
+      </c>
+      <c r="G908" s="15" t="s">
         <v>1996</v>
-      </c>
-      <c r="E908" s="14">
-        <v>2</v>
-      </c>
-      <c r="F908" s="14">
-        <v>1</v>
-      </c>
-      <c r="G908" s="15" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48459,7 +48459,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48473,7 +48473,7 @@
         <v>1166</v>
       </c>
       <c r="D910" s="15" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E910" s="14">
         <v>2</v>
@@ -48482,7 +48482,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48505,7 +48505,7 @@
         <v>1</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48519,7 +48519,7 @@
         <v>1166</v>
       </c>
       <c r="D912" s="15" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E912" s="14">
         <v>2</v>
@@ -48528,7 +48528,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48551,7 +48551,7 @@
         <v>2</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48574,7 +48574,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1">
@@ -48597,7 +48597,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="15" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="916" spans="1:7" s="8" customFormat="1"/>
@@ -48626,8 +48626,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48761,13 +48761,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -48784,10 +48784,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1619</v>
@@ -48813,7 +48813,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>1745</v>
+        <v>2017</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48830,13 +48830,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48845,7 +48845,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -48853,13 +48853,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -48868,7 +48868,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -48876,13 +48876,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -48891,7 +48891,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
@@ -48984,7 +48984,7 @@
         <v>863</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4687" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="2018">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9594,7 +9594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9904,9 +9904,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -25873,7 +25870,7 @@
       <c r="B326" s="26">
         <v>1</v>
       </c>
-      <c r="C326" s="118" t="s">
+      <c r="C326" s="117" t="s">
         <v>1799</v>
       </c>
       <c r="D326" s="30" t="s">
@@ -25905,7 +25902,7 @@
       <c r="B327" s="26">
         <v>1</v>
       </c>
-      <c r="C327" s="118" t="s">
+      <c r="C327" s="117" t="s">
         <v>1800</v>
       </c>
       <c r="D327" s="30" t="s">
@@ -26657,11 +26654,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C812" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C811" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D824" sqref="D824"/>
+      <selection pane="bottomRight" activeCell="A829" sqref="A829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -46528,20 +46525,20 @@
       <c r="B831" s="115">
         <v>331</v>
       </c>
-      <c r="C831" s="116" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D831" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E831" s="116">
-        <v>5</v>
-      </c>
-      <c r="F831" s="116">
-        <v>1</v>
-      </c>
-      <c r="G831" s="117" t="s">
-        <v>1630</v>
+      <c r="C831" s="115" t="s">
+        <v>876</v>
+      </c>
+      <c r="D831" s="115">
+        <v>4</v>
+      </c>
+      <c r="E831" s="115">
+        <v>3</v>
+      </c>
+      <c r="F831" s="115">
+        <v>1</v>
+      </c>
+      <c r="G831" s="116" t="s">
+        <v>1791</v>
       </c>
       <c r="H831" s="8"/>
       <c r="I831" s="8"/>
@@ -46550,23 +46547,23 @@
       <c r="A832" s="8">
         <v>831</v>
       </c>
-      <c r="B832" s="116">
+      <c r="B832" s="115">
         <v>331</v>
       </c>
-      <c r="C832" s="116" t="s">
+      <c r="C832" s="115" t="s">
         <v>876</v>
       </c>
-      <c r="D832" s="116">
+      <c r="D832" s="115">
+        <v>10</v>
+      </c>
+      <c r="E832" s="115">
         <v>4</v>
       </c>
-      <c r="E832" s="116">
-        <v>3</v>
-      </c>
-      <c r="F832" s="116">
-        <v>1</v>
-      </c>
-      <c r="G832" s="117" t="s">
-        <v>1791</v>
+      <c r="F832" s="115">
+        <v>1</v>
+      </c>
+      <c r="G832" s="116" t="s">
+        <v>1790</v>
       </c>
       <c r="H832" s="8"/>
       <c r="I832" s="8"/>
@@ -46575,23 +46572,23 @@
       <c r="A833" s="8">
         <v>832</v>
       </c>
-      <c r="B833" s="116">
-        <v>331</v>
-      </c>
-      <c r="C833" s="116" t="s">
+      <c r="B833" s="8">
+        <v>332</v>
+      </c>
+      <c r="C833" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="D833" s="116">
-        <v>10</v>
-      </c>
-      <c r="E833" s="116">
-        <v>4</v>
-      </c>
-      <c r="F833" s="116">
-        <v>1</v>
-      </c>
-      <c r="G833" s="117" t="s">
-        <v>1790</v>
+      <c r="D833" s="8">
+        <v>0</v>
+      </c>
+      <c r="E833" s="8">
+        <v>2</v>
+      </c>
+      <c r="F833" s="8">
+        <v>1</v>
+      </c>
+      <c r="G833" s="10" t="s">
+        <v>1805</v>
       </c>
       <c r="H833" s="8"/>
       <c r="I833" s="8"/>
@@ -46600,23 +46597,23 @@
       <c r="A834" s="8">
         <v>833</v>
       </c>
-      <c r="B834" s="8">
-        <v>332</v>
-      </c>
-      <c r="C834" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="D834" s="8">
-        <v>0</v>
-      </c>
-      <c r="E834" s="8">
-        <v>2</v>
-      </c>
-      <c r="F834" s="8">
-        <v>1</v>
-      </c>
-      <c r="G834" s="10" t="s">
-        <v>1805</v>
+      <c r="B834" s="9">
+        <v>333</v>
+      </c>
+      <c r="C834" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D834" s="9" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E834" s="9">
+        <v>5</v>
+      </c>
+      <c r="F834" s="9">
+        <v>1</v>
+      </c>
+      <c r="G834" s="53" t="s">
+        <v>1821</v>
       </c>
       <c r="H834" s="8"/>
       <c r="I834" s="8"/>
@@ -46626,22 +46623,22 @@
         <v>834</v>
       </c>
       <c r="B835" s="9">
-        <v>333</v>
-      </c>
-      <c r="C835" s="10" t="s">
-        <v>1043</v>
+        <v>334</v>
+      </c>
+      <c r="C835" s="9" t="s">
+        <v>863</v>
       </c>
       <c r="D835" s="9" t="s">
-        <v>1934</v>
+        <v>868</v>
       </c>
       <c r="E835" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F835" s="9">
         <v>1</v>
       </c>
-      <c r="G835" s="53" t="s">
-        <v>1821</v>
+      <c r="G835" s="9" t="s">
+        <v>869</v>
       </c>
       <c r="H835" s="8"/>
       <c r="I835" s="8"/>
@@ -46653,11 +46650,11 @@
       <c r="B836" s="9">
         <v>334</v>
       </c>
-      <c r="C836" s="9" t="s">
-        <v>863</v>
+      <c r="C836" s="10" t="s">
+        <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>868</v>
+        <v>1934</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -46666,7 +46663,7 @@
         <v>1</v>
       </c>
       <c r="G836" s="9" t="s">
-        <v>869</v>
+        <v>1834</v>
       </c>
       <c r="H836" s="8"/>
       <c r="I836" s="8"/>
@@ -46676,13 +46673,13 @@
         <v>836</v>
       </c>
       <c r="B837" s="9">
-        <v>334</v>
-      </c>
-      <c r="C837" s="10" t="s">
-        <v>1043</v>
+        <v>335</v>
+      </c>
+      <c r="C837" s="9" t="s">
+        <v>863</v>
       </c>
       <c r="D837" s="9" t="s">
-        <v>1934</v>
+        <v>872</v>
       </c>
       <c r="E837" s="9">
         <v>2</v>
@@ -46690,8 +46687,8 @@
       <c r="F837" s="9">
         <v>1</v>
       </c>
-      <c r="G837" s="9" t="s">
-        <v>1834</v>
+      <c r="G837" s="53" t="s">
+        <v>873</v>
       </c>
       <c r="H837" s="8"/>
       <c r="I837" s="8"/>
@@ -46703,11 +46700,11 @@
       <c r="B838" s="9">
         <v>335</v>
       </c>
-      <c r="C838" s="9" t="s">
-        <v>863</v>
+      <c r="C838" s="10" t="s">
+        <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>872</v>
+        <v>1934</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -46715,8 +46712,8 @@
       <c r="F838" s="9">
         <v>1</v>
       </c>
-      <c r="G838" s="53" t="s">
-        <v>873</v>
+      <c r="G838" s="9" t="s">
+        <v>1834</v>
       </c>
       <c r="H838" s="8"/>
       <c r="I838" s="8"/>
@@ -46725,23 +46722,23 @@
       <c r="A839" s="8">
         <v>838</v>
       </c>
-      <c r="B839" s="9">
-        <v>335</v>
-      </c>
-      <c r="C839" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D839" s="9" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E839" s="9">
-        <v>2</v>
-      </c>
-      <c r="F839" s="9">
-        <v>1</v>
-      </c>
-      <c r="G839" s="9" t="s">
-        <v>1834</v>
+      <c r="B839" s="98">
+        <v>336</v>
+      </c>
+      <c r="C839" s="98" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D839" s="99" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E839" s="98">
+        <v>5</v>
+      </c>
+      <c r="F839" s="98">
+        <v>1</v>
+      </c>
+      <c r="G839" s="99" t="s">
+        <v>1835</v>
       </c>
       <c r="H839" s="8"/>
       <c r="I839" s="8"/>
@@ -46750,23 +46747,23 @@
       <c r="A840" s="8">
         <v>839</v>
       </c>
-      <c r="B840" s="98">
+      <c r="B840" s="9">
         <v>336</v>
       </c>
-      <c r="C840" s="98" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D840" s="99" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E840" s="98">
+      <c r="C840" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D840" s="9" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E840" s="9">
         <v>5</v>
       </c>
-      <c r="F840" s="98">
-        <v>1</v>
-      </c>
-      <c r="G840" s="99" t="s">
-        <v>1835</v>
+      <c r="F840" s="9">
+        <v>1</v>
+      </c>
+      <c r="G840" s="9" t="s">
+        <v>1834</v>
       </c>
       <c r="H840" s="8"/>
       <c r="I840" s="8"/>
@@ -46775,23 +46772,23 @@
       <c r="A841" s="8">
         <v>840</v>
       </c>
-      <c r="B841" s="9">
-        <v>336</v>
-      </c>
-      <c r="C841" s="10" t="s">
+      <c r="B841" s="106">
+        <v>337</v>
+      </c>
+      <c r="C841" s="107" t="s">
         <v>1043</v>
       </c>
-      <c r="D841" s="9" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E841" s="9">
-        <v>5</v>
-      </c>
-      <c r="F841" s="9">
-        <v>1</v>
-      </c>
-      <c r="G841" s="9" t="s">
-        <v>1834</v>
+      <c r="D841" s="107" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E841" s="106">
+        <v>2</v>
+      </c>
+      <c r="F841" s="106">
+        <v>1</v>
+      </c>
+      <c r="G841" s="107" t="s">
+        <v>1852</v>
       </c>
       <c r="H841" s="8"/>
       <c r="I841" s="8"/>
@@ -46803,20 +46800,20 @@
       <c r="B842" s="106">
         <v>337</v>
       </c>
-      <c r="C842" s="107" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D842" s="107" t="s">
-        <v>1851</v>
+      <c r="C842" s="106" t="s">
+        <v>891</v>
+      </c>
+      <c r="D842" s="106">
+        <v>1604968200</v>
       </c>
       <c r="E842" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F842" s="106">
         <v>1</v>
       </c>
       <c r="G842" s="107" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H842" s="8"/>
       <c r="I842" s="8"/>
@@ -46829,19 +46826,19 @@
         <v>337</v>
       </c>
       <c r="C843" s="106" t="s">
-        <v>891</v>
-      </c>
-      <c r="D843" s="106">
-        <v>1604968200</v>
+        <v>863</v>
+      </c>
+      <c r="D843" s="106" t="s">
+        <v>864</v>
       </c>
       <c r="E843" s="106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F843" s="106">
         <v>1</v>
       </c>
-      <c r="G843" s="107" t="s">
-        <v>1853</v>
+      <c r="G843" s="106" t="s">
+        <v>1855</v>
       </c>
       <c r="H843" s="8"/>
       <c r="I843" s="8"/>
@@ -46850,23 +46847,23 @@
       <c r="A844" s="8">
         <v>843</v>
       </c>
-      <c r="B844" s="106">
-        <v>337</v>
-      </c>
-      <c r="C844" s="106" t="s">
-        <v>863</v>
-      </c>
-      <c r="D844" s="106" t="s">
-        <v>864</v>
-      </c>
-      <c r="E844" s="106">
-        <v>2</v>
-      </c>
-      <c r="F844" s="106">
-        <v>1</v>
-      </c>
-      <c r="G844" s="106" t="s">
-        <v>1855</v>
+      <c r="B844" s="14">
+        <v>338</v>
+      </c>
+      <c r="C844" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D844" s="14" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E844" s="14">
+        <v>5</v>
+      </c>
+      <c r="F844" s="14">
+        <v>1</v>
+      </c>
+      <c r="G844" s="14" t="s">
+        <v>1862</v>
       </c>
       <c r="H844" s="8"/>
       <c r="I844" s="8"/>
@@ -46875,23 +46872,23 @@
       <c r="A845" s="8">
         <v>844</v>
       </c>
-      <c r="B845" s="14">
-        <v>338</v>
-      </c>
-      <c r="C845" s="14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D845" s="14" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E845" s="14">
-        <v>5</v>
-      </c>
-      <c r="F845" s="14">
-        <v>1</v>
-      </c>
-      <c r="G845" s="14" t="s">
-        <v>1862</v>
+      <c r="B845" s="8">
+        <v>339</v>
+      </c>
+      <c r="C845" s="10" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D845" s="10" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E845" s="8">
+        <v>2</v>
+      </c>
+      <c r="F845" s="8">
+        <v>1</v>
+      </c>
+      <c r="G845" s="10" t="s">
+        <v>1871</v>
       </c>
       <c r="H845" s="8" t="s">
         <v>870</v>
@@ -46905,22 +46902,22 @@
         <v>845</v>
       </c>
       <c r="B846" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C846" s="10" t="s">
-        <v>1870</v>
+        <v>1170</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1869</v>
+        <v>1934</v>
       </c>
       <c r="E846" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F846" s="8">
         <v>1</v>
       </c>
       <c r="G846" s="10" t="s">
-        <v>1871</v>
+        <v>1911</v>
       </c>
       <c r="H846" s="8"/>
       <c r="I846" s="8"/>
@@ -46930,7 +46927,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C847" s="10" t="s">
         <v>1170</v>
@@ -46939,13 +46936,13 @@
         <v>1934</v>
       </c>
       <c r="E847" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F847" s="8">
         <v>1</v>
       </c>
       <c r="G847" s="10" t="s">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="H847" s="8" t="s">
         <v>874</v>
@@ -46958,23 +46955,23 @@
       <c r="A848" s="8">
         <v>847</v>
       </c>
-      <c r="B848" s="8">
-        <v>341</v>
-      </c>
-      <c r="C848" s="10" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D848" s="10" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E848" s="8">
-        <v>2</v>
-      </c>
-      <c r="F848" s="8">
-        <v>1</v>
-      </c>
-      <c r="G848" s="10" t="s">
-        <v>1922</v>
+      <c r="B848" s="110">
+        <v>342</v>
+      </c>
+      <c r="C848" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D848" s="111" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E848" s="110">
+        <v>2</v>
+      </c>
+      <c r="F848" s="110">
+        <v>1</v>
+      </c>
+      <c r="G848" s="111" t="s">
+        <v>1924</v>
       </c>
       <c r="H848" s="8"/>
       <c r="I848" s="8"/>
@@ -46986,20 +46983,20 @@
       <c r="B849" s="110">
         <v>342</v>
       </c>
-      <c r="C849" s="111" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D849" s="111" t="s">
-        <v>1923</v>
+      <c r="C849" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D849" s="110">
+        <v>1</v>
       </c>
       <c r="E849" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F849" s="110">
         <v>1</v>
       </c>
       <c r="G849" s="111" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="H849" s="8"/>
       <c r="I849" s="8"/>
@@ -47011,20 +47008,20 @@
       <c r="B850" s="110">
         <v>342</v>
       </c>
-      <c r="C850" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D850" s="110">
-        <v>1</v>
+      <c r="C850" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D850" s="111" t="s">
+        <v>1920</v>
       </c>
       <c r="E850" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F850" s="110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G850" s="111" t="s">
-        <v>1914</v>
+        <v>1689</v>
       </c>
       <c r="H850" s="8"/>
       <c r="I850" s="8"/>
@@ -47036,20 +47033,20 @@
       <c r="B851" s="110">
         <v>342</v>
       </c>
-      <c r="C851" s="111" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D851" s="111" t="s">
-        <v>1920</v>
+      <c r="C851" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D851" s="110">
+        <v>1</v>
       </c>
       <c r="E851" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F851" s="110">
         <v>2</v>
       </c>
       <c r="G851" s="111" t="s">
-        <v>1689</v>
+        <v>1914</v>
       </c>
       <c r="H851" s="8"/>
       <c r="I851" s="8"/>
@@ -47061,20 +47058,20 @@
       <c r="B852" s="110">
         <v>342</v>
       </c>
-      <c r="C852" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D852" s="110">
-        <v>1</v>
+      <c r="C852" s="111" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D852" s="111" t="s">
+        <v>1921</v>
       </c>
       <c r="E852" s="110">
+        <v>2</v>
+      </c>
+      <c r="F852" s="110">
         <v>3</v>
       </c>
-      <c r="F852" s="110">
-        <v>2</v>
-      </c>
       <c r="G852" s="111" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H852" s="8"/>
       <c r="I852" s="8"/>
@@ -47086,20 +47083,20 @@
       <c r="B853" s="110">
         <v>342</v>
       </c>
-      <c r="C853" s="111" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D853" s="111" t="s">
-        <v>1921</v>
+      <c r="C853" s="110" t="s">
+        <v>876</v>
+      </c>
+      <c r="D853" s="110">
+        <v>1</v>
       </c>
       <c r="E853" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F853" s="110">
         <v>3</v>
       </c>
       <c r="G853" s="111" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="H853" s="8"/>
       <c r="I853" s="8"/>
@@ -47112,16 +47109,16 @@
         <v>342</v>
       </c>
       <c r="C854" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D854" s="110">
-        <v>1</v>
+        <v>1043</v>
+      </c>
+      <c r="D854" s="110" t="s">
+        <v>1934</v>
       </c>
       <c r="E854" s="110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F854" s="110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G854" s="111" t="s">
         <v>1914</v>
@@ -47137,42 +47134,42 @@
         <v>342</v>
       </c>
       <c r="C855" s="110" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D855" s="110" t="s">
-        <v>1934</v>
+        <v>876</v>
+      </c>
+      <c r="D855" s="110">
+        <v>1</v>
       </c>
       <c r="E855" s="110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F855" s="110">
         <v>4</v>
       </c>
       <c r="G855" s="111" t="s">
-        <v>1914</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="8" customFormat="1">
       <c r="A856" s="8">
         <v>855</v>
       </c>
-      <c r="B856" s="110">
-        <v>342</v>
-      </c>
-      <c r="C856" s="110" t="s">
-        <v>876</v>
-      </c>
-      <c r="D856" s="110">
-        <v>1</v>
-      </c>
-      <c r="E856" s="110">
+      <c r="B856" s="9">
+        <v>343</v>
+      </c>
+      <c r="C856" s="53" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D856" s="9">
+        <v>1</v>
+      </c>
+      <c r="E856" s="9">
         <v>3</v>
       </c>
-      <c r="F856" s="110">
-        <v>4</v>
-      </c>
-      <c r="G856" s="111" t="s">
-        <v>1925</v>
+      <c r="F856" s="9">
+        <v>1</v>
+      </c>
+      <c r="G856" s="10" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="8" customFormat="1">
@@ -47182,20 +47179,20 @@
       <c r="B857" s="9">
         <v>343</v>
       </c>
-      <c r="C857" s="53" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D857" s="9">
-        <v>1</v>
-      </c>
-      <c r="E857" s="9">
-        <v>3</v>
-      </c>
-      <c r="F857" s="9">
+      <c r="C857" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D857" s="15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E857" s="8">
+        <v>5</v>
+      </c>
+      <c r="F857" s="8">
         <v>1</v>
       </c>
       <c r="G857" s="10" t="s">
-        <v>1927</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="110" customFormat="1">
@@ -47205,20 +47202,20 @@
       <c r="B858" s="9">
         <v>343</v>
       </c>
-      <c r="C858" s="10" t="s">
-        <v>1910</v>
-      </c>
-      <c r="D858" s="15" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E858" s="8">
-        <v>5</v>
-      </c>
-      <c r="F858" s="8">
-        <v>1</v>
+      <c r="C858" s="53" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D858" s="9">
+        <v>9</v>
+      </c>
+      <c r="E858" s="9">
+        <v>3</v>
+      </c>
+      <c r="F858" s="9">
+        <v>2</v>
       </c>
       <c r="G858" s="10" t="s">
-        <v>1916</v>
+        <v>1928</v>
       </c>
       <c r="H858" s="8"/>
       <c r="I858" s="8"/>
@@ -47230,20 +47227,20 @@
       <c r="B859" s="9">
         <v>343</v>
       </c>
-      <c r="C859" s="53" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D859" s="9">
-        <v>9</v>
-      </c>
-      <c r="E859" s="9">
-        <v>3</v>
-      </c>
-      <c r="F859" s="9">
+      <c r="C859" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D859" s="15" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E859" s="8">
+        <v>5</v>
+      </c>
+      <c r="F859" s="8">
         <v>2</v>
       </c>
       <c r="G859" s="10" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
       <c r="H859" s="8"/>
       <c r="I859" s="8"/>
@@ -47252,23 +47249,23 @@
       <c r="A860" s="8">
         <v>859</v>
       </c>
-      <c r="B860" s="9">
+      <c r="B860" s="14">
         <v>343</v>
       </c>
-      <c r="C860" s="10" t="s">
+      <c r="C860" s="15" t="s">
         <v>1170</v>
       </c>
       <c r="D860" s="15" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E860" s="8">
-        <v>5</v>
-      </c>
-      <c r="F860" s="8">
-        <v>2</v>
-      </c>
-      <c r="G860" s="10" t="s">
-        <v>1918</v>
+        <v>1915</v>
+      </c>
+      <c r="E860" s="14">
+        <v>2</v>
+      </c>
+      <c r="F860" s="14">
+        <v>3</v>
+      </c>
+      <c r="G860" s="15" t="s">
+        <v>1916</v>
       </c>
       <c r="H860" s="8"/>
       <c r="I860" s="8"/>
@@ -47284,16 +47281,16 @@
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1915</v>
+        <v>1934</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
       </c>
       <c r="F861" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G861" s="15" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="H861" s="8"/>
       <c r="I861" s="8"/>
@@ -47302,23 +47299,23 @@
       <c r="A862" s="8">
         <v>861</v>
       </c>
-      <c r="B862" s="14">
-        <v>343</v>
-      </c>
-      <c r="C862" s="15" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D862" s="15" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E862" s="14">
-        <v>2</v>
-      </c>
-      <c r="F862" s="14">
-        <v>4</v>
-      </c>
-      <c r="G862" s="15" t="s">
-        <v>1919</v>
+      <c r="B862" s="8">
+        <v>344</v>
+      </c>
+      <c r="C862" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D862" s="10" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E862" s="8">
+        <v>5</v>
+      </c>
+      <c r="F862" s="8">
+        <v>1</v>
+      </c>
+      <c r="G862" s="10" t="s">
+        <v>1010</v>
       </c>
       <c r="H862" s="8"/>
       <c r="I862" s="8"/>
@@ -47334,16 +47331,16 @@
         <v>863</v>
       </c>
       <c r="D863" s="10" t="s">
-        <v>1963</v>
+        <v>1011</v>
       </c>
       <c r="E863" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F863" s="8">
         <v>1</v>
       </c>
       <c r="G863" s="10" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H863" s="8"/>
       <c r="I863" s="8"/>
@@ -47356,10 +47353,10 @@
         <v>344</v>
       </c>
       <c r="C864" s="10" t="s">
-        <v>863</v>
+        <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1011</v>
+        <v>1964</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -47368,7 +47365,7 @@
         <v>1</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>1012</v>
+        <v>1090</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -47381,19 +47378,19 @@
         <v>344</v>
       </c>
       <c r="C865" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D865" s="10" t="s">
-        <v>1964</v>
+        <v>910</v>
+      </c>
+      <c r="D865" s="8">
+        <v>600</v>
       </c>
       <c r="E865" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F865" s="8">
         <v>1</v>
       </c>
       <c r="G865" s="10" t="s">
-        <v>1090</v>
+        <v>1013</v>
       </c>
       <c r="H865" s="8"/>
       <c r="I865" s="8"/>
@@ -47403,22 +47400,22 @@
         <v>865</v>
       </c>
       <c r="B866" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C866" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D866" s="8">
-        <v>600</v>
+        <v>863</v>
+      </c>
+      <c r="D866" s="10" t="s">
+        <v>1963</v>
       </c>
       <c r="E866" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F866" s="8">
         <v>1</v>
       </c>
       <c r="G866" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H866" s="8"/>
       <c r="I866" s="8"/>
@@ -47434,16 +47431,16 @@
         <v>863</v>
       </c>
       <c r="D867" s="10" t="s">
-        <v>1963</v>
+        <v>1011</v>
       </c>
       <c r="E867" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F867" s="8">
         <v>1</v>
       </c>
       <c r="G867" s="10" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H867" s="8"/>
       <c r="I867" s="8"/>
@@ -47456,19 +47453,19 @@
         <v>345</v>
       </c>
       <c r="C868" s="10" t="s">
-        <v>863</v>
+        <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1011</v>
+        <v>1947</v>
       </c>
       <c r="E868" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F868" s="8">
         <v>1</v>
       </c>
       <c r="G868" s="10" t="s">
-        <v>1015</v>
+        <v>1079</v>
       </c>
       <c r="H868" s="8"/>
       <c r="I868" s="8"/>
@@ -47481,19 +47478,19 @@
         <v>345</v>
       </c>
       <c r="C869" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D869" s="10" t="s">
-        <v>1947</v>
+        <v>910</v>
+      </c>
+      <c r="D869" s="8">
+        <v>600</v>
       </c>
       <c r="E869" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F869" s="8">
         <v>1</v>
       </c>
       <c r="G869" s="10" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
       <c r="H869" s="8"/>
       <c r="I869" s="8"/>
@@ -47502,23 +47499,23 @@
       <c r="A870" s="8">
         <v>869</v>
       </c>
-      <c r="B870" s="8">
-        <v>345</v>
+      <c r="B870" s="9">
+        <v>346</v>
       </c>
       <c r="C870" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D870" s="8">
-        <v>600</v>
+        <v>1166</v>
+      </c>
+      <c r="D870" s="15" t="s">
+        <v>1936</v>
       </c>
       <c r="E870" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F870" s="8">
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1013</v>
+        <v>1942</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -47530,20 +47527,20 @@
       <c r="B871" s="9">
         <v>346</v>
       </c>
-      <c r="C871" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D871" s="15" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E871" s="8">
-        <v>2</v>
-      </c>
-      <c r="F871" s="8">
-        <v>1</v>
-      </c>
-      <c r="G871" s="10" t="s">
-        <v>1942</v>
+      <c r="C871" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D871" s="9" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E871" s="9">
+        <v>2</v>
+      </c>
+      <c r="F871" s="9">
+        <v>2</v>
+      </c>
+      <c r="G871" s="53" t="s">
+        <v>1943</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47558,17 +47555,17 @@
       <c r="C872" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="D872" s="9" t="s">
-        <v>1937</v>
+      <c r="D872" s="53" t="s">
+        <v>1939</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
       </c>
       <c r="F872" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47582,16 +47579,16 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
       </c>
       <c r="F873" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47599,22 +47596,22 @@
         <v>873</v>
       </c>
       <c r="B874" s="9">
-        <v>346</v>
-      </c>
-      <c r="C874" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D874" s="53" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E874" s="9">
-        <v>2</v>
-      </c>
-      <c r="F874" s="9">
-        <v>4</v>
-      </c>
-      <c r="G874" s="53" t="s">
-        <v>1945</v>
+        <v>347</v>
+      </c>
+      <c r="C874" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D874" s="15" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E874" s="8">
+        <v>2</v>
+      </c>
+      <c r="F874" s="8">
+        <v>1</v>
+      </c>
+      <c r="G874" s="10" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="8" customFormat="1">
@@ -47622,16 +47619,16 @@
         <v>874</v>
       </c>
       <c r="B875" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C875" s="10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D875" s="15" t="s">
         <v>1938</v>
       </c>
       <c r="E875" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F875" s="8">
         <v>1</v>
@@ -47645,22 +47642,22 @@
         <v>875</v>
       </c>
       <c r="B876" s="9">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C876" s="10" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="D876" s="15" t="s">
-        <v>1938</v>
+        <v>1624</v>
       </c>
       <c r="E876" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F876" s="8">
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1918</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -47668,13 +47665,13 @@
         <v>876</v>
       </c>
       <c r="B877" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C877" s="10" t="s">
         <v>1170</v>
       </c>
       <c r="D877" s="15" t="s">
-        <v>1624</v>
+        <v>1845</v>
       </c>
       <c r="E877" s="8">
         <v>2</v>
@@ -47683,7 +47680,7 @@
         <v>1</v>
       </c>
       <c r="G877" s="10" t="s">
-        <v>1955</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="8" customFormat="1">
@@ -47691,22 +47688,22 @@
         <v>877</v>
       </c>
       <c r="B878" s="9">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C878" s="10" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D878" s="15" t="s">
-        <v>1845</v>
+        <v>1930</v>
       </c>
       <c r="E878" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F878" s="8">
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1535</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -47714,7 +47711,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="9">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C879" s="10" t="s">
         <v>1166</v>
@@ -47723,7 +47720,7 @@
         <v>1930</v>
       </c>
       <c r="E879" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F879" s="8">
         <v>1</v>
@@ -47740,19 +47737,19 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1166</v>
+        <v>1970</v>
       </c>
       <c r="D880" s="15" t="s">
-        <v>1930</v>
+        <v>1624</v>
       </c>
       <c r="E880" s="8">
         <v>2</v>
       </c>
       <c r="F880" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1942</v>
+        <v>1971</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -47765,19 +47762,19 @@
         <v>352</v>
       </c>
       <c r="C881" s="10" t="s">
-        <v>1970</v>
+        <v>1166</v>
       </c>
       <c r="D881" s="15" t="s">
-        <v>1624</v>
+        <v>1845</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
       </c>
       <c r="F881" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -47787,22 +47784,22 @@
         <v>881</v>
       </c>
       <c r="B882" s="9">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
-        <v>1166</v>
+        <v>1979</v>
       </c>
       <c r="D882" s="15" t="s">
-        <v>1845</v>
+        <v>1980</v>
       </c>
       <c r="E882" s="8">
         <v>2</v>
       </c>
       <c r="F882" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G882" s="10" t="s">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -47812,22 +47809,22 @@
         <v>882</v>
       </c>
       <c r="B883" s="9">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C883" s="10" t="s">
-        <v>1979</v>
+        <v>1166</v>
       </c>
       <c r="D883" s="15" t="s">
-        <v>1980</v>
+        <v>1845</v>
       </c>
       <c r="E883" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F883" s="8">
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -47840,10 +47837,10 @@
         <v>354</v>
       </c>
       <c r="C884" s="10" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D884" s="15" t="s">
-        <v>1845</v>
+        <v>1043</v>
+      </c>
+      <c r="D884" s="10" t="s">
+        <v>1947</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -47852,7 +47849,7 @@
         <v>1</v>
       </c>
       <c r="G884" s="10" t="s">
-        <v>1972</v>
+        <v>1079</v>
       </c>
       <c r="H884" s="8"/>
       <c r="I884" s="8"/>
@@ -47861,23 +47858,23 @@
       <c r="A885" s="8">
         <v>884</v>
       </c>
-      <c r="B885" s="9">
-        <v>354</v>
+      <c r="B885" s="8">
+        <v>355</v>
       </c>
       <c r="C885" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D885" s="10" t="s">
-        <v>1947</v>
+        <v>910</v>
+      </c>
+      <c r="D885" s="8">
+        <v>100</v>
       </c>
       <c r="E885" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F885" s="8">
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1079</v>
+        <v>1989</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -47886,23 +47883,23 @@
       <c r="A886" s="8">
         <v>885</v>
       </c>
-      <c r="B886" s="8">
+      <c r="B886" s="14">
         <v>355</v>
       </c>
-      <c r="C886" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D886" s="8">
-        <v>100</v>
-      </c>
-      <c r="E886" s="8">
-        <v>3</v>
-      </c>
-      <c r="F886" s="8">
-        <v>1</v>
-      </c>
-      <c r="G886" s="10" t="s">
-        <v>1989</v>
+      <c r="C886" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D886" s="15" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E886" s="14">
+        <v>2</v>
+      </c>
+      <c r="F886" s="14">
+        <v>1</v>
+      </c>
+      <c r="G886" s="15" t="s">
+        <v>1535</v>
       </c>
       <c r="H886" s="8"/>
       <c r="I886" s="8"/>
@@ -47911,23 +47908,23 @@
       <c r="A887" s="8">
         <v>886</v>
       </c>
-      <c r="B887" s="14">
+      <c r="B887" s="8">
         <v>355</v>
       </c>
-      <c r="C887" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D887" s="15" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E887" s="14">
-        <v>2</v>
-      </c>
-      <c r="F887" s="14">
-        <v>1</v>
-      </c>
-      <c r="G887" s="15" t="s">
-        <v>1535</v>
+      <c r="C887" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="D887" s="8">
+        <v>100</v>
+      </c>
+      <c r="E887" s="8">
+        <v>3</v>
+      </c>
+      <c r="F887" s="8">
+        <v>2</v>
+      </c>
+      <c r="G887" s="10" t="s">
+        <v>1989</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -47936,23 +47933,23 @@
       <c r="A888" s="8">
         <v>887</v>
       </c>
-      <c r="B888" s="8">
+      <c r="B888" s="14">
         <v>355</v>
       </c>
-      <c r="C888" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="D888" s="8">
-        <v>100</v>
-      </c>
-      <c r="E888" s="8">
-        <v>3</v>
-      </c>
-      <c r="F888" s="8">
-        <v>2</v>
-      </c>
-      <c r="G888" s="10" t="s">
-        <v>1989</v>
+      <c r="C888" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D888" s="15" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E888" s="14">
+        <v>2</v>
+      </c>
+      <c r="F888" s="14">
+        <v>2</v>
+      </c>
+      <c r="G888" s="15" t="s">
+        <v>1535</v>
       </c>
       <c r="H888" s="8"/>
       <c r="I888" s="8"/>
@@ -47961,23 +47958,23 @@
       <c r="A889" s="8">
         <v>888</v>
       </c>
-      <c r="B889" s="14">
-        <v>355</v>
+      <c r="B889" s="9">
+        <v>356</v>
       </c>
       <c r="C889" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="D889" s="15" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E889" s="14">
-        <v>2</v>
-      </c>
-      <c r="F889" s="14">
-        <v>2</v>
-      </c>
-      <c r="G889" s="15" t="s">
-        <v>1535</v>
+      <c r="D889" s="53" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E889" s="9">
+        <v>5</v>
+      </c>
+      <c r="F889" s="9">
+        <v>1</v>
+      </c>
+      <c r="G889" s="53" t="s">
+        <v>1996</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -47990,19 +47987,19 @@
         <v>356</v>
       </c>
       <c r="C890" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D890" s="53" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D890" s="53">
+        <v>2</v>
       </c>
       <c r="E890" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F890" s="9">
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48012,22 +48009,22 @@
         <v>890</v>
       </c>
       <c r="B891" s="9">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C891" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D891" s="53">
-        <v>2</v>
+        <v>1166</v>
+      </c>
+      <c r="D891" s="53" t="s">
+        <v>1995</v>
       </c>
       <c r="E891" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F891" s="9">
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48040,19 +48037,19 @@
         <v>357</v>
       </c>
       <c r="C892" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D892" s="53" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D892" s="53">
+        <v>3</v>
       </c>
       <c r="E892" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F892" s="9">
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48068,10 +48065,10 @@
         <v>1141</v>
       </c>
       <c r="D893" s="53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E893" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F893" s="9">
         <v>1</v>
@@ -48085,22 +48082,22 @@
         <v>893</v>
       </c>
       <c r="B894" s="9">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C894" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D894" s="53">
+        <v>1166</v>
+      </c>
+      <c r="D894" s="53" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E894" s="9">
         <v>5</v>
       </c>
-      <c r="E894" s="9">
-        <v>4</v>
-      </c>
       <c r="F894" s="9">
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48113,19 +48110,19 @@
         <v>358</v>
       </c>
       <c r="C895" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D895" s="53" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D895" s="53">
+        <v>6</v>
       </c>
       <c r="E895" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F895" s="9">
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48141,10 +48138,10 @@
         <v>1141</v>
       </c>
       <c r="D896" s="53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E896" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F896" s="9">
         <v>1</v>
@@ -48160,22 +48157,22 @@
         <v>896</v>
       </c>
       <c r="B897" s="9">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C897" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D897" s="53">
-        <v>7</v>
+        <v>1166</v>
+      </c>
+      <c r="D897" s="53" t="s">
+        <v>1995</v>
       </c>
       <c r="E897" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F897" s="9">
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48188,19 +48185,19 @@
         <v>359</v>
       </c>
       <c r="C898" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D898" s="53" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D898" s="53">
+        <v>8</v>
       </c>
       <c r="E898" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F898" s="9">
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48209,23 +48206,23 @@
       <c r="A899" s="8">
         <v>898</v>
       </c>
-      <c r="B899" s="9">
-        <v>359</v>
+      <c r="B899" s="8">
+        <v>360</v>
       </c>
       <c r="C899" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D899" s="53">
-        <v>8</v>
-      </c>
-      <c r="E899" s="9">
-        <v>3</v>
-      </c>
-      <c r="F899" s="9">
-        <v>1</v>
-      </c>
-      <c r="G899" s="53" t="s">
-        <v>1997</v>
+        <v>1166</v>
+      </c>
+      <c r="D899" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E899" s="14">
+        <v>2</v>
+      </c>
+      <c r="F899" s="14">
+        <v>1</v>
+      </c>
+      <c r="G899" s="15" t="s">
+        <v>1996</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48238,10 +48235,10 @@
         <v>360</v>
       </c>
       <c r="C900" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D900" s="15" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D900" s="15">
+        <v>2</v>
       </c>
       <c r="E900" s="14">
         <v>2</v>
@@ -48250,7 +48247,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48260,13 +48257,13 @@
         <v>900</v>
       </c>
       <c r="B901" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C901" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D901" s="15">
-        <v>2</v>
+        <v>1166</v>
+      </c>
+      <c r="D901" s="15" t="s">
+        <v>1995</v>
       </c>
       <c r="E901" s="14">
         <v>2</v>
@@ -48275,7 +48272,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48286,19 +48283,19 @@
         <v>361</v>
       </c>
       <c r="C902" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D902" s="15" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D902" s="15">
+        <v>3</v>
       </c>
       <c r="E902" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F902" s="14">
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48312,10 +48309,10 @@
         <v>1141</v>
       </c>
       <c r="D903" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E903" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F903" s="14">
         <v>1</v>
@@ -48329,22 +48326,22 @@
         <v>903</v>
       </c>
       <c r="B904" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C904" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D904" s="15">
-        <v>5</v>
+        <v>1166</v>
+      </c>
+      <c r="D904" s="15" t="s">
+        <v>1995</v>
       </c>
       <c r="E904" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F904" s="14">
         <v>1</v>
       </c>
       <c r="G904" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48355,19 +48352,19 @@
         <v>362</v>
       </c>
       <c r="C905" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D905" s="15" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D905" s="15">
+        <v>6</v>
       </c>
       <c r="E905" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F905" s="14">
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48381,10 +48378,10 @@
         <v>1141</v>
       </c>
       <c r="D906" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E906" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F906" s="14">
         <v>1</v>
@@ -48398,22 +48395,22 @@
         <v>906</v>
       </c>
       <c r="B907" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C907" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D907" s="15">
-        <v>7</v>
+        <v>1166</v>
+      </c>
+      <c r="D907" s="15" t="s">
+        <v>1995</v>
       </c>
       <c r="E907" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F907" s="14">
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48424,19 +48421,19 @@
         <v>363</v>
       </c>
       <c r="C908" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D908" s="15" t="s">
-        <v>1995</v>
+        <v>1141</v>
+      </c>
+      <c r="D908" s="15">
+        <v>8</v>
       </c>
       <c r="E908" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F908" s="14">
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48444,22 +48441,22 @@
         <v>908</v>
       </c>
       <c r="B909" s="8">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C909" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D909" s="15">
-        <v>8</v>
+        <v>1166</v>
+      </c>
+      <c r="D909" s="15" t="s">
+        <v>1994</v>
       </c>
       <c r="E909" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F909" s="14">
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48470,19 +48467,19 @@
         <v>364</v>
       </c>
       <c r="C910" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D910" s="15" t="s">
-        <v>1994</v>
+        <v>1141</v>
+      </c>
+      <c r="D910" s="15">
+        <v>2</v>
       </c>
       <c r="E910" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F910" s="14">
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48493,19 +48490,19 @@
         <v>364</v>
       </c>
       <c r="C911" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D911" s="15">
-        <v>2</v>
+        <v>1166</v>
+      </c>
+      <c r="D911" s="15" t="s">
+        <v>2010</v>
       </c>
       <c r="E911" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F911" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48516,19 +48513,19 @@
         <v>364</v>
       </c>
       <c r="C912" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D912" s="15" t="s">
-        <v>2010</v>
+        <v>1141</v>
+      </c>
+      <c r="D912" s="15">
+        <v>2</v>
       </c>
       <c r="E912" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F912" s="14">
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48536,22 +48533,22 @@
         <v>912</v>
       </c>
       <c r="B913" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C913" s="15" t="s">
         <v>1141</v>
       </c>
       <c r="D913" s="15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E913" s="14">
         <v>3</v>
       </c>
       <c r="F913" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>1997</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48559,13 +48556,13 @@
         <v>913</v>
       </c>
       <c r="B914" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C914" s="15" t="s">
         <v>1141</v>
       </c>
       <c r="D914" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E914" s="14">
         <v>3</v>
@@ -48574,32 +48571,10 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" s="8" customFormat="1">
-      <c r="A915" s="8">
-        <v>914</v>
-      </c>
-      <c r="B915" s="8">
-        <v>366</v>
-      </c>
-      <c r="C915" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D915" s="15">
-        <v>12</v>
-      </c>
-      <c r="E915" s="14">
-        <v>3</v>
-      </c>
-      <c r="F915" s="14">
-        <v>1</v>
-      </c>
-      <c r="G915" s="15" t="s">
         <v>2016</v>
       </c>
     </row>
+    <row r="915" spans="1:7" s="8" customFormat="1"/>
     <row r="916" spans="1:7" s="8" customFormat="1"/>
     <row r="917" spans="1:7" s="8" customFormat="1"/>
     <row r="918" spans="1:7" s="8" customFormat="1"/>
@@ -48626,8 +48601,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -8974,19 +8974,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>签到权限-只有欢乐捕鱼和冲金鸡官方渠道展示</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cjj_all</t>
-  </si>
-  <si>
-    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cjj_official</t>
@@ -9339,6 +9331,14 @@
   </si>
   <si>
     <t>"vivo","xiaomi","yyb",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj","cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cjj_juxiang","cjj_pceggs","cjj_xianwan","cjj_aibianxian","cjj_juxiangpc","cjj_zhuankebao","cjj_dandanzhuan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10195,8 +10195,8 @@
   <dimension ref="A1:Q445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11401,7 +11401,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11437,7 +11437,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11576,7 +11576,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14723,10 +14723,10 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="27" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B429" s="27" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="C429" s="3">
         <v>344</v>
@@ -14734,10 +14734,10 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="27" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B430" s="27" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C430" s="3">
         <v>345</v>
@@ -14745,10 +14745,10 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="27" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="B432" s="27" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C432" s="3">
         <v>346</v>
@@ -14756,10 +14756,10 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="27" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C434" s="3">
         <v>347</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="27" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B435" s="27" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C435" s="3">
         <v>348</v>
@@ -14778,10 +14778,10 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="27" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B437" s="27" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C437" s="3">
         <v>351</v>
@@ -14789,10 +14789,10 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="27" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B438" s="27" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C438" s="3">
         <v>352</v>
@@ -14800,10 +14800,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="27" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B440" s="27" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C440" s="3">
         <v>353</v>
@@ -14811,10 +14811,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="3" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C442" s="3">
         <v>354</v>
@@ -14822,10 +14822,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="27" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B444" s="27" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C444" s="3">
         <v>355</v>
@@ -24782,7 +24782,7 @@
         <v>1857</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1686</v>
@@ -26214,7 +26214,7 @@
         <v>1</v>
       </c>
       <c r="J336" s="16" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -26231,10 +26231,10 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D337" s="30" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="G337" s="17">
         <v>349</v>
@@ -26263,10 +26263,10 @@
         <v>1</v>
       </c>
       <c r="C338" s="30" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D338" s="30" t="s">
         <v>1952</v>
-      </c>
-      <c r="D338" s="30" t="s">
-        <v>1954</v>
       </c>
       <c r="E338" s="17"/>
       <c r="F338" s="17"/>
@@ -26297,10 +26297,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D339" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26329,10 +26329,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26361,10 +26361,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26393,10 +26393,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26425,10 +26425,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26457,10 +26457,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26489,10 +26489,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26521,10 +26521,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26553,10 +26553,10 @@
         <v>1</v>
       </c>
       <c r="C347" s="79" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D347" s="30" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G347" s="26">
         <v>364</v>
@@ -26585,10 +26585,10 @@
         <v>1</v>
       </c>
       <c r="C348" s="30" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D348" s="92" t="s">
         <v>2011</v>
-      </c>
-      <c r="D348" s="92" t="s">
-        <v>2013</v>
       </c>
       <c r="G348" s="26">
         <v>365</v>
@@ -26617,10 +26617,10 @@
         <v>1</v>
       </c>
       <c r="C349" s="30" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D349" s="92" t="s">
         <v>2012</v>
-      </c>
-      <c r="D349" s="92" t="s">
-        <v>2014</v>
       </c>
       <c r="G349" s="26">
         <v>366</v>
@@ -26654,11 +26654,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C811" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A829" sqref="A829"/>
+      <selection pane="bottomRight" activeCell="E825" sqref="E825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28855,7 +28855,7 @@
         <v>863</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="E94" s="8">
         <v>2</v>
@@ -30153,7 +30153,7 @@
         <v>1043</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30162,7 +30162,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
@@ -30845,7 +30845,7 @@
         <v>1043</v>
       </c>
       <c r="D180" s="94" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E180" s="14">
         <v>2</v>
@@ -31277,7 +31277,7 @@
         <v>1043</v>
       </c>
       <c r="D198" s="105" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E198" s="103">
         <v>2</v>
@@ -35458,7 +35458,7 @@
         <v>1166</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -40782,7 +40782,7 @@
         <v>1166</v>
       </c>
       <c r="D600" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E600" s="14">
         <v>2</v>
@@ -40932,7 +40932,7 @@
         <v>1166</v>
       </c>
       <c r="D606" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E606" s="14">
         <v>2</v>
@@ -41082,7 +41082,7 @@
         <v>1166</v>
       </c>
       <c r="D612" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E612" s="14">
         <v>2</v>
@@ -41232,7 +41232,7 @@
         <v>1166</v>
       </c>
       <c r="D618" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E618" s="14">
         <v>2</v>
@@ -41382,7 +41382,7 @@
         <v>1166</v>
       </c>
       <c r="D624" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E624" s="14">
         <v>2</v>
@@ -41532,7 +41532,7 @@
         <v>1166</v>
       </c>
       <c r="D630" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E630" s="14">
         <v>2</v>
@@ -44138,7 +44138,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="H735" s="8"/>
       <c r="I735" s="8"/>
@@ -44338,7 +44338,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
@@ -45879,7 +45879,7 @@
         <v>1043</v>
       </c>
       <c r="D805" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E805" s="9">
         <v>5</v>
@@ -45954,7 +45954,7 @@
         <v>1043</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46304,7 +46304,7 @@
         <v>1043</v>
       </c>
       <c r="D822" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E822" s="9">
         <v>2</v>
@@ -46429,7 +46429,7 @@
         <v>1043</v>
       </c>
       <c r="D827" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E827" s="9">
         <v>5</v>
@@ -46479,7 +46479,7 @@
         <v>1043</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E829" s="9">
         <v>5</v>
@@ -46604,7 +46604,7 @@
         <v>1043</v>
       </c>
       <c r="D834" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E834" s="9">
         <v>5</v>
@@ -46654,7 +46654,7 @@
         <v>1043</v>
       </c>
       <c r="D836" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E836" s="9">
         <v>2</v>
@@ -46704,7 +46704,7 @@
         <v>1043</v>
       </c>
       <c r="D838" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E838" s="9">
         <v>2</v>
@@ -46754,7 +46754,7 @@
         <v>1043</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E840" s="9">
         <v>5</v>
@@ -46854,7 +46854,7 @@
         <v>1043</v>
       </c>
       <c r="D844" s="14" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E844" s="14">
         <v>5</v>
@@ -46908,7 +46908,7 @@
         <v>1170</v>
       </c>
       <c r="D846" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E846" s="8">
         <v>5</v>
@@ -46933,7 +46933,7 @@
         <v>1170</v>
       </c>
       <c r="D847" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E847" s="8">
         <v>2</v>
@@ -47112,7 +47112,7 @@
         <v>1043</v>
       </c>
       <c r="D854" s="110" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E854" s="110">
         <v>2</v>
@@ -47231,7 +47231,7 @@
         <v>1170</v>
       </c>
       <c r="D859" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E859" s="8">
         <v>5</v>
@@ -47281,7 +47281,7 @@
         <v>1170</v>
       </c>
       <c r="D861" s="15" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E861" s="14">
         <v>2</v>
@@ -47306,7 +47306,7 @@
         <v>863</v>
       </c>
       <c r="D862" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E862" s="8">
         <v>5</v>
@@ -47356,7 +47356,7 @@
         <v>1043</v>
       </c>
       <c r="D864" s="10" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="E864" s="8">
         <v>2</v>
@@ -47406,7 +47406,7 @@
         <v>863</v>
       </c>
       <c r="D866" s="10" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E866" s="8">
         <v>2</v>
@@ -47456,7 +47456,7 @@
         <v>1043</v>
       </c>
       <c r="D868" s="10" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E868" s="8">
         <v>2</v>
@@ -47506,7 +47506,7 @@
         <v>1166</v>
       </c>
       <c r="D870" s="15" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E870" s="8">
         <v>2</v>
@@ -47515,7 +47515,7 @@
         <v>1</v>
       </c>
       <c r="G870" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H870" s="8"/>
       <c r="I870" s="8"/>
@@ -47531,7 +47531,7 @@
         <v>1043</v>
       </c>
       <c r="D871" s="9" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="E871" s="9">
         <v>2</v>
@@ -47540,7 +47540,7 @@
         <v>2</v>
       </c>
       <c r="G871" s="53" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
@@ -47556,7 +47556,7 @@
         <v>1043</v>
       </c>
       <c r="D872" s="53" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E872" s="9">
         <v>2</v>
@@ -47565,7 +47565,7 @@
         <v>3</v>
       </c>
       <c r="G872" s="53" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="8" customFormat="1">
@@ -47579,7 +47579,7 @@
         <v>1043</v>
       </c>
       <c r="D873" s="53" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="E873" s="9">
         <v>2</v>
@@ -47588,7 +47588,7 @@
         <v>4</v>
       </c>
       <c r="G873" s="53" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="8" customFormat="1">
@@ -47602,7 +47602,7 @@
         <v>1170</v>
       </c>
       <c r="D874" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E874" s="8">
         <v>2</v>
@@ -47625,7 +47625,7 @@
         <v>1166</v>
       </c>
       <c r="D875" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E875" s="8">
         <v>5</v>
@@ -47657,7 +47657,7 @@
         <v>1</v>
       </c>
       <c r="G876" s="10" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="8" customFormat="1">
@@ -47703,7 +47703,7 @@
         <v>1</v>
       </c>
       <c r="G878" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="8" customFormat="1">
@@ -47726,7 +47726,7 @@
         <v>1</v>
       </c>
       <c r="G879" s="10" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -47737,7 +47737,7 @@
         <v>352</v>
       </c>
       <c r="C880" s="10" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D880" s="15" t="s">
         <v>1624</v>
@@ -47749,7 +47749,7 @@
         <v>2</v>
       </c>
       <c r="G880" s="10" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="H880" s="8"/>
       <c r="I880" s="8"/>
@@ -47774,7 +47774,7 @@
         <v>3</v>
       </c>
       <c r="G881" s="10" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H881" s="8"/>
       <c r="I881" s="8"/>
@@ -47787,19 +47787,19 @@
         <v>353</v>
       </c>
       <c r="C882" s="10" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D882" s="15" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E882" s="8">
+        <v>2</v>
+      </c>
+      <c r="F882" s="8">
+        <v>1</v>
+      </c>
+      <c r="G882" s="10" t="s">
         <v>1979</v>
-      </c>
-      <c r="D882" s="15" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E882" s="8">
-        <v>2</v>
-      </c>
-      <c r="F882" s="8">
-        <v>1</v>
-      </c>
-      <c r="G882" s="10" t="s">
-        <v>1981</v>
       </c>
       <c r="H882" s="8"/>
       <c r="I882" s="8"/>
@@ -47824,7 +47824,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="H883" s="8"/>
       <c r="I883" s="8"/>
@@ -47840,7 +47840,7 @@
         <v>1043</v>
       </c>
       <c r="D884" s="10" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E884" s="8">
         <v>5</v>
@@ -47874,7 +47874,7 @@
         <v>1</v>
       </c>
       <c r="G885" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="H885" s="8"/>
       <c r="I885" s="8"/>
@@ -47924,7 +47924,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="H887" s="8"/>
       <c r="I887" s="8"/>
@@ -47940,7 +47940,7 @@
         <v>1166</v>
       </c>
       <c r="D888" s="15" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E888" s="14">
         <v>2</v>
@@ -47965,7 +47965,7 @@
         <v>1166</v>
       </c>
       <c r="D889" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E889" s="9">
         <v>5</v>
@@ -47974,7 +47974,7 @@
         <v>1</v>
       </c>
       <c r="G889" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H889" s="8"/>
       <c r="I889" s="8"/>
@@ -47999,7 +47999,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H890" s="8"/>
       <c r="I890" s="8"/>
@@ -48015,7 +48015,7 @@
         <v>1166</v>
       </c>
       <c r="D891" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E891" s="9">
         <v>5</v>
@@ -48024,7 +48024,7 @@
         <v>1</v>
       </c>
       <c r="G891" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H891" s="8"/>
       <c r="I891" s="8"/>
@@ -48049,7 +48049,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H892" s="8"/>
       <c r="I892" s="8"/>
@@ -48074,7 +48074,7 @@
         <v>1</v>
       </c>
       <c r="G893" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -48088,7 +48088,7 @@
         <v>1166</v>
       </c>
       <c r="D894" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E894" s="9">
         <v>5</v>
@@ -48097,7 +48097,7 @@
         <v>1</v>
       </c>
       <c r="G894" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H894" s="8"/>
       <c r="I894" s="8"/>
@@ -48122,7 +48122,7 @@
         <v>1</v>
       </c>
       <c r="G895" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H895" s="8"/>
       <c r="I895" s="8"/>
@@ -48147,7 +48147,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H896" s="8"/>
       <c r="I896" s="8"/>
@@ -48163,7 +48163,7 @@
         <v>1166</v>
       </c>
       <c r="D897" s="53" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E897" s="9">
         <v>5</v>
@@ -48172,7 +48172,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H897" s="8"/>
       <c r="I897" s="8"/>
@@ -48197,7 +48197,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H898" s="8"/>
       <c r="I898" s="8"/>
@@ -48213,7 +48213,7 @@
         <v>1166</v>
       </c>
       <c r="D899" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E899" s="14">
         <v>2</v>
@@ -48222,7 +48222,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="H899" s="8"/>
       <c r="I899" s="8"/>
@@ -48247,7 +48247,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H900" s="8"/>
       <c r="I900" s="8"/>
@@ -48263,7 +48263,7 @@
         <v>1166</v>
       </c>
       <c r="D901" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E901" s="14">
         <v>2</v>
@@ -48272,7 +48272,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="8" customFormat="1">
@@ -48295,7 +48295,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="8" customFormat="1">
@@ -48318,7 +48318,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="8" customFormat="1">
@@ -48332,7 +48332,7 @@
         <v>1166</v>
       </c>
       <c r="D904" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E904" s="14">
         <v>2</v>
@@ -48341,7 +48341,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="8" customFormat="1">
@@ -48364,7 +48364,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="8" customFormat="1">
@@ -48387,7 +48387,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="8" customFormat="1">
@@ -48401,7 +48401,7 @@
         <v>1166</v>
       </c>
       <c r="D907" s="15" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E907" s="14">
         <v>2</v>
@@ -48410,7 +48410,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="8" customFormat="1">
@@ -48433,7 +48433,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="8" customFormat="1">
@@ -48447,16 +48447,16 @@
         <v>1166</v>
       </c>
       <c r="D909" s="15" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E909" s="14">
+        <v>2</v>
+      </c>
+      <c r="F909" s="14">
+        <v>1</v>
+      </c>
+      <c r="G909" s="15" t="s">
         <v>1994</v>
-      </c>
-      <c r="E909" s="14">
-        <v>2</v>
-      </c>
-      <c r="F909" s="14">
-        <v>1</v>
-      </c>
-      <c r="G909" s="15" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="8" customFormat="1">
@@ -48479,7 +48479,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="8" customFormat="1">
@@ -48493,7 +48493,7 @@
         <v>1166</v>
       </c>
       <c r="D911" s="15" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E911" s="14">
         <v>2</v>
@@ -48502,7 +48502,7 @@
         <v>2</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="8" customFormat="1">
@@ -48525,7 +48525,7 @@
         <v>2</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="8" customFormat="1">
@@ -48548,7 +48548,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="8" customFormat="1">
@@ -48571,7 +48571,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="15" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="8" customFormat="1"/>
@@ -48601,7 +48601,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -48736,7 +48736,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>895</v>
@@ -48759,7 +48759,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1750</v>
@@ -48788,7 +48788,7 @@
         <v>895</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -48805,13 +48805,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1932</v>
+        <v>2016</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -48828,13 +48828,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>895</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1935</v>
+        <v>2017</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/config_12.29/permission_server_config.xlsx
+++ b/config_12.29/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="2025">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9169,207 +9169,227 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>是官方玩家才可游戏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡CPL玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_task_fish_daily_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐天天捕鱼CPL（小额用户、VIP1及以上）没有下载了玩棋牌游戏（是否有账号）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡平台CPL（小额用户、VIP1及以上）没有下载了鲸鱼斗地主游戏（是否有账号）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_plat_own_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlby_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjsl_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycj_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运抽奖</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d捕鱼官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注1000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐下注60000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_vip_desc</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡VIP描述屏蔽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋活动使用锤子（全体）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_cpl_jjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是新用户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值大等1元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_cjj_cpl_type_plat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼&amp;冲金鸡平台的CPL用户（大等1元）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip2周任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于冲金鸡渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP等级2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_2_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_3_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_6_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_week_task_8_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip累积赢金挑战</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_vip_game_award_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>是官方玩家才可游戏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡CPL玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_fish_daily_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐天天捕鱼CPL（小额用户、VIP1及以上）没有下载了玩棋牌游戏（是否有账号）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_type_plat</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡平台CPL（小额用户、VIP1及以上）没有下载了鲸鱼斗地主游戏（是否有账号）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_plat_own_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>hlby_type_plat</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjsl_enter_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycj_enter_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运抽奖</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d捕鱼官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注1000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐下注60000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_vip_desc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡VIP描述屏蔽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>share_condition</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋活动使用锤子（全体）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是新用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>not_cpl_jjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>救济金显示权限（非cpl显示30000，cpl为20000）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是新用户</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值大等1元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_cjj_cpl_type_plat</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼&amp;冲金鸡平台的CPL用户（大等1元）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip2周任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等于冲金鸡渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_2_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_3_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_6_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_vip_week_task_8_cjj</t>
+    <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10202,7 +10222,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B446" sqref="B446:C446"/>
+      <selection pane="bottomLeft" activeCell="A448" sqref="A448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11407,7 +11427,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -11443,7 +11463,7 @@
         <v>136</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C73" s="57">
         <v>22</v>
@@ -11582,7 +11602,7 @@
         <v>145</v>
       </c>
       <c r="B82" s="53" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C82" s="9">
         <v>26</v>
@@ -14740,10 +14760,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="27" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B431" s="27" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C431" s="3">
         <v>344</v>
@@ -14751,10 +14771,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="27" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B432" s="27" t="s">
         <v>1976</v>
-      </c>
-      <c r="B432" s="27" t="s">
-        <v>1977</v>
       </c>
       <c r="C432" s="3">
         <v>345</v>
@@ -14795,10 +14815,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B439" s="27" t="s">
         <v>1981</v>
-      </c>
-      <c r="B439" s="27" t="s">
-        <v>1982</v>
       </c>
       <c r="C439" s="3">
         <v>351</v>
@@ -14806,10 +14826,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="27" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B440" s="27" t="s">
         <v>1983</v>
-      </c>
-      <c r="B440" s="27" t="s">
-        <v>1984</v>
       </c>
       <c r="C440" s="3">
         <v>352</v>
@@ -14817,10 +14837,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="27" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B442" s="27" t="s">
         <v>1992</v>
-      </c>
-      <c r="B442" s="27" t="s">
-        <v>1993</v>
       </c>
       <c r="C442" s="3">
         <v>353</v>
@@ -14828,10 +14848,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B444" s="3" t="s">
         <v>1999</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>2000</v>
       </c>
       <c r="C444" s="3">
         <v>354</v>
@@ -14839,10 +14859,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="27" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B446" s="27" t="s">
         <v>2005</v>
-      </c>
-      <c r="B446" s="27" t="s">
-        <v>2006</v>
       </c>
       <c r="C446" s="3">
         <v>355</v>
@@ -14862,13 +14882,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O346"/>
+  <dimension ref="A1:O347"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F329" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F342" sqref="F342"/>
+      <selection pane="bottomRight" activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24799,7 +24819,7 @@
         <v>1870</v>
       </c>
       <c r="D292" s="79" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
@@ -25182,7 +25202,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="30" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D304" s="30" t="s">
         <v>1688</v>
@@ -26230,8 +26250,8 @@
       <c r="I336" t="b">
         <v>1</v>
       </c>
-      <c r="J336" s="17" t="s">
-        <v>468</v>
+      <c r="J336" s="16" t="s">
+        <v>2020</v>
       </c>
       <c r="K336" s="17">
         <v>1606176000</v>
@@ -26248,7 +26268,7 @@
         <v>1</v>
       </c>
       <c r="C337" s="30" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D337" s="30" t="s">
         <v>1967</v>
@@ -26314,10 +26334,10 @@
         <v>1</v>
       </c>
       <c r="C339" s="79" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D339" s="30" t="s">
         <v>2007</v>
-      </c>
-      <c r="D339" s="30" t="s">
-        <v>2008</v>
       </c>
       <c r="G339" s="26">
         <v>356</v>
@@ -26346,10 +26366,10 @@
         <v>1</v>
       </c>
       <c r="C340" s="79" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D340" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G340" s="26">
         <v>357</v>
@@ -26378,10 +26398,10 @@
         <v>1</v>
       </c>
       <c r="C341" s="79" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D341" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G341" s="26">
         <v>358</v>
@@ -26410,10 +26430,10 @@
         <v>1</v>
       </c>
       <c r="C342" s="79" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D342" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G342" s="26">
         <v>359</v>
@@ -26442,10 +26462,10 @@
         <v>1</v>
       </c>
       <c r="C343" s="79" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D343" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G343" s="26">
         <v>360</v>
@@ -26474,10 +26494,10 @@
         <v>1</v>
       </c>
       <c r="C344" s="79" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D344" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G344" s="26">
         <v>361</v>
@@ -26506,10 +26526,10 @@
         <v>1</v>
       </c>
       <c r="C345" s="79" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D345" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G345" s="26">
         <v>362</v>
@@ -26538,10 +26558,10 @@
         <v>1</v>
       </c>
       <c r="C346" s="79" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D346" s="30" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G346" s="26">
         <v>363</v>
@@ -26559,6 +26579,38 @@
         <v>1598889600</v>
       </c>
       <c r="L346" s="16" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A347" s="17">
+        <v>346</v>
+      </c>
+      <c r="B347" s="26">
+        <v>1</v>
+      </c>
+      <c r="C347" s="79" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D347" s="30" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G347" s="26">
+        <v>364</v>
+      </c>
+      <c r="H347" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I347" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J347" s="16" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K347" s="17">
+        <v>1598889600</v>
+      </c>
+      <c r="L347" s="16" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -26573,13 +26625,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I915"/>
+  <dimension ref="A1:I917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C881" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C890" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A891" sqref="A891:A915"/>
+      <selection pane="bottomRight" activeCell="G917" sqref="A916:G917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30064,7 +30116,7 @@
         <v>1045</v>
       </c>
       <c r="D150" s="113" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E150" s="112">
         <v>2</v>
@@ -30073,7 +30125,7 @@
         <v>4</v>
       </c>
       <c r="G150" s="113" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -35323,7 +35375,7 @@
         <v>1168</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E378" s="8">
         <v>2</v>
@@ -43550,7 +43602,7 @@
         <v>2</v>
       </c>
       <c r="G735" s="19" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
@@ -43734,7 +43786,7 @@
         <v>2</v>
       </c>
       <c r="G743" s="19" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.2">
@@ -45220,7 +45272,7 @@
         <v>1045</v>
       </c>
       <c r="D808" s="10" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E808" s="9">
         <v>5</v>
@@ -46635,7 +46687,7 @@
         <v>865</v>
       </c>
       <c r="D869" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E869" s="8">
         <v>5</v>
@@ -46681,7 +46733,7 @@
         <v>1045</v>
       </c>
       <c r="D871" s="10" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E871" s="8">
         <v>2</v>
@@ -46727,7 +46779,7 @@
         <v>865</v>
       </c>
       <c r="D873" s="10" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E873" s="8">
         <v>2</v>
@@ -46966,7 +47018,7 @@
         <v>1</v>
       </c>
       <c r="G883" s="10" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.2">
@@ -47046,7 +47098,7 @@
         <v>352</v>
       </c>
       <c r="C887" s="10" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D887" s="15" t="s">
         <v>1626</v>
@@ -47058,7 +47110,7 @@
         <v>2</v>
       </c>
       <c r="G887" s="10" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.2">
@@ -47081,7 +47133,7 @@
         <v>3</v>
       </c>
       <c r="G888" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.2">
@@ -47092,19 +47144,19 @@
         <v>353</v>
       </c>
       <c r="C889" s="10" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D889" s="15" t="s">
         <v>1994</v>
       </c>
-      <c r="D889" s="15" t="s">
+      <c r="E889" s="8">
+        <v>2</v>
+      </c>
+      <c r="F889" s="8">
+        <v>1</v>
+      </c>
+      <c r="G889" s="10" t="s">
         <v>1995</v>
-      </c>
-      <c r="E889" s="8">
-        <v>2</v>
-      </c>
-      <c r="F889" s="8">
-        <v>1</v>
-      </c>
-      <c r="G889" s="10" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.2">
@@ -47127,7 +47179,7 @@
         <v>1</v>
       </c>
       <c r="G890" s="10" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.2">
@@ -47173,7 +47225,7 @@
         <v>1</v>
       </c>
       <c r="G892" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.2">
@@ -47219,7 +47271,7 @@
         <v>2</v>
       </c>
       <c r="G894" s="10" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.2">
@@ -47256,7 +47308,7 @@
         <v>1168</v>
       </c>
       <c r="D896" s="53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E896" s="9">
         <v>5</v>
@@ -47265,7 +47317,7 @@
         <v>1</v>
       </c>
       <c r="G896" s="53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.2">
@@ -47288,7 +47340,7 @@
         <v>1</v>
       </c>
       <c r="G897" s="53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.2">
@@ -47302,7 +47354,7 @@
         <v>1168</v>
       </c>
       <c r="D898" s="53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E898" s="9">
         <v>5</v>
@@ -47311,7 +47363,7 @@
         <v>1</v>
       </c>
       <c r="G898" s="53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.2">
@@ -47334,7 +47386,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.2">
@@ -47357,7 +47409,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.2">
@@ -47371,7 +47423,7 @@
         <v>1168</v>
       </c>
       <c r="D901" s="53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E901" s="9">
         <v>5</v>
@@ -47380,7 +47432,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.2">
@@ -47403,7 +47455,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.2">
@@ -47426,7 +47478,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.2">
@@ -47440,7 +47492,7 @@
         <v>1168</v>
       </c>
       <c r="D904" s="53" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E904" s="9">
         <v>5</v>
@@ -47449,7 +47501,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="53" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.2">
@@ -47472,7 +47524,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="906" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47486,16 +47538,16 @@
         <v>1168</v>
       </c>
       <c r="D906" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E906" s="14">
+        <v>2</v>
+      </c>
+      <c r="F906" s="14">
+        <v>1</v>
+      </c>
+      <c r="G906" s="15" t="s">
         <v>2010</v>
-      </c>
-      <c r="E906" s="14">
-        <v>2</v>
-      </c>
-      <c r="F906" s="14">
-        <v>1</v>
-      </c>
-      <c r="G906" s="15" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="907" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47518,7 +47570,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="908" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47532,16 +47584,16 @@
         <v>1168</v>
       </c>
       <c r="D908" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E908" s="14">
+        <v>2</v>
+      </c>
+      <c r="F908" s="14">
+        <v>1</v>
+      </c>
+      <c r="G908" s="15" t="s">
         <v>2010</v>
-      </c>
-      <c r="E908" s="14">
-        <v>2</v>
-      </c>
-      <c r="F908" s="14">
-        <v>1</v>
-      </c>
-      <c r="G908" s="15" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="909" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47564,7 +47616,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="910" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47587,7 +47639,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="911" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47601,16 +47653,16 @@
         <v>1168</v>
       </c>
       <c r="D911" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E911" s="14">
+        <v>2</v>
+      </c>
+      <c r="F911" s="14">
+        <v>1</v>
+      </c>
+      <c r="G911" s="15" t="s">
         <v>2010</v>
-      </c>
-      <c r="E911" s="14">
-        <v>2</v>
-      </c>
-      <c r="F911" s="14">
-        <v>1</v>
-      </c>
-      <c r="G911" s="15" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="912" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47633,7 +47685,7 @@
         <v>1</v>
       </c>
       <c r="G912" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="913" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47656,7 +47708,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="914" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47670,16 +47722,16 @@
         <v>1168</v>
       </c>
       <c r="D914" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E914" s="14">
+        <v>2</v>
+      </c>
+      <c r="F914" s="14">
+        <v>1</v>
+      </c>
+      <c r="G914" s="15" t="s">
         <v>2010</v>
-      </c>
-      <c r="E914" s="14">
-        <v>2</v>
-      </c>
-      <c r="F914" s="14">
-        <v>1</v>
-      </c>
-      <c r="G914" s="15" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="915" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -47702,7 +47754,53 @@
         <v>1</v>
       </c>
       <c r="G915" s="15" t="s">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A916" s="8">
+        <v>915</v>
+      </c>
+      <c r="B916" s="14">
+        <v>364</v>
+      </c>
+      <c r="C916" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D916" s="15" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E916" s="14">
+        <v>2</v>
+      </c>
+      <c r="F916" s="14">
+        <v>1</v>
+      </c>
+      <c r="G916" s="15" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A917" s="8">
+        <v>916</v>
+      </c>
+      <c r="B917" s="14">
+        <v>364</v>
+      </c>
+      <c r="C917" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D917" s="15" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E917" s="14">
+        <v>2</v>
+      </c>
+      <c r="F917" s="14">
+        <v>2</v>
+      </c>
+      <c r="G917" s="15" t="s">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -47718,7 +47816,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47852,7 +47950,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>897</v>
@@ -47875,7 +47973,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>1969</v>
+        <v>2023</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1753</v>
@@ -47921,7 +48019,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>897</v>
